--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Form 1 - Município" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Form 2 - UVR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Form 3 - Empreendimento" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 1 - Município" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 2 - UVR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 3 - Empreendimento" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 1 - Município" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 2 - UVR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 3 - Empreendimento" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Form 1 - Município" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Form 2 - UVR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Form 3 - Empreendimento" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5997,8 +5997,16 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H56" s="3" t="n"/>
-      <c r="I56" s="3" t="n"/>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>excluir ID 156, ID204  manter ID205</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="inlineStr">
+        <is>
+          <t>Remover ID156 e ID 204</t>
+        </is>
+      </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -11,7 +11,11 @@
     <sheet name="Form 2 - UVR" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Form 3 - Empreendimento" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form 1 - Município'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Form 2 - UVR'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Form 3 - Empreendimento'!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -3346,6 +3350,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -6117,6 +6122,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -8844,6 +8850,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -207,7 +207,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -221,6 +221,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="00FF6666"/>
           <bgColor rgb="00FF6666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFA500"/>
+          <bgColor rgb="00FFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3366,27 +3374,33 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não, Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -6138,27 +6152,33 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -8866,27 +8886,33 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -649,7 +649,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3419,7 +3420,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -6028,7 +6030,7 @@
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Em Análise</t>
         </is>
       </c>
       <c r="K56" s="3" t="n"/>
@@ -6197,7 +6199,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -139,12 +139,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00006400"/>
         <bgColor rgb="00006400"/>
       </patternFill>
@@ -153,6 +147,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00808080"/>
         <bgColor rgb="00808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
   </fills>
@@ -237,9 +237,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,10 +255,13 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,7 +932,7 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="51" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="151" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>01/04/2025, 02/04/2025, 06/04/2025, 09/04/2025</t>
+          <t>09/04/2025</t>
         </is>
       </c>
       <c r="G2" s="9" t="inlineStr">
@@ -1045,10 +1045,14 @@
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K2" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K2" s="7" t="inlineStr">
+        <is>
+          <t>Deletados 139, 142 e 148</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1071,7 +1075,7 @@
           <t>Marcia Regina Willers</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1100,7 +1104,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1120,7 +1124,7 @@
           <t>Amanda Tayara Ribeiro da Silva</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1165,7 +1169,7 @@
           <t>Vagner Perseti Alves</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1194,7 +1198,7 @@
       <c r="K5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1214,7 +1218,7 @@
           <t>Tania Grespan</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1239,7 +1243,7 @@
       <c r="K6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -1259,7 +1263,7 @@
           <t>Daniele de Souza Lima Mei</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1296,7 +1300,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -1316,7 +1320,7 @@
           <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
         </is>
       </c>
-      <c r="E8" s="10" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1341,7 +1345,7 @@
       <c r="K8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="inlineStr">
+      <c r="A9" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -1361,7 +1365,7 @@
           <t>Elder Arantes</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1398,7 +1402,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="inlineStr">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1418,7 +1422,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1443,7 +1447,7 @@
       <c r="K10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="inlineStr">
+      <c r="A11" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1463,7 +1467,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E11" s="10" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1488,7 +1492,7 @@
       <c r="K11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="inlineStr">
+      <c r="A12" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1508,7 +1512,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1533,7 +1537,7 @@
       <c r="K12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="inlineStr">
+      <c r="A13" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1553,7 +1557,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E13" s="10" t="inlineStr">
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1578,7 +1582,7 @@
       <c r="K13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1598,7 +1602,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1623,7 +1627,7 @@
       <c r="K14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="inlineStr">
+      <c r="A15" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1643,7 +1647,7 @@
           <t>Evellyn Renata Bereza Bueno</t>
         </is>
       </c>
-      <c r="E15" s="10" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1668,7 +1672,7 @@
       <c r="K15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="inlineStr">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1688,7 +1692,7 @@
           <t>Anandra da Silva</t>
         </is>
       </c>
-      <c r="E16" s="10" t="inlineStr">
+      <c r="E16" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1713,7 +1717,7 @@
       <c r="K16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="A17" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -1733,7 +1737,7 @@
           <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
         </is>
       </c>
-      <c r="E17" s="10" t="inlineStr">
+      <c r="E17" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1778,7 +1782,7 @@
           <t>Jéssica da Silva Bortolozzo</t>
         </is>
       </c>
-      <c r="E18" s="10" t="inlineStr">
+      <c r="E18" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1803,7 +1807,7 @@
       <c r="K18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -1819,13 +1823,13 @@
         </is>
       </c>
       <c r="D19" s="7" t="n"/>
-      <c r="E19" s="17" t="inlineStr">
+      <c r="E19" s="16" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
       <c r="F19" s="7" t="n"/>
-      <c r="G19" s="18" t="inlineStr">
+      <c r="G19" s="17" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1860,7 +1864,7 @@
           <t>Bianca Monteiro</t>
         </is>
       </c>
-      <c r="E20" s="10" t="inlineStr">
+      <c r="E20" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1885,7 +1889,7 @@
       <c r="K20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="inlineStr">
+      <c r="A21" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1905,7 +1909,7 @@
           <t>Augusto Cesar Nunes</t>
         </is>
       </c>
-      <c r="E21" s="10" t="inlineStr">
+      <c r="E21" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1930,7 +1934,7 @@
       <c r="K21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="inlineStr">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1950,7 +1954,7 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E22" s="10" t="inlineStr">
+      <c r="E22" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1975,7 +1979,7 @@
       <c r="K22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="inlineStr">
+      <c r="A23" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -1995,7 +1999,7 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E23" s="10" t="inlineStr">
+      <c r="E23" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2020,7 +2024,7 @@
       <c r="K23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="inlineStr">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2040,7 +2044,7 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E24" s="10" t="inlineStr">
+      <c r="E24" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2065,7 +2069,7 @@
       <c r="K24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="inlineStr">
+      <c r="A25" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -2085,7 +2089,7 @@
           <t>Marcos Alexandre Cordeiro Esmocoviski</t>
         </is>
       </c>
-      <c r="E25" s="10" t="inlineStr">
+      <c r="E25" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2110,7 +2114,7 @@
       <c r="K25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="inlineStr">
+      <c r="A26" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -2130,7 +2134,7 @@
           <t>Rodrigo Lima</t>
         </is>
       </c>
-      <c r="E26" s="10" t="inlineStr">
+      <c r="E26" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2155,7 +2159,7 @@
       <c r="K26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="inlineStr">
+      <c r="A27" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -2175,7 +2179,7 @@
           <t>Savana Lemes Rodrigues</t>
         </is>
       </c>
-      <c r="E27" s="10" t="inlineStr">
+      <c r="E27" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2200,7 +2204,7 @@
       <c r="K27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="inlineStr">
+      <c r="A28" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -2220,7 +2224,7 @@
           <t>Letícia Diniz</t>
         </is>
       </c>
-      <c r="E28" s="10" t="inlineStr">
+      <c r="E28" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2245,7 +2249,7 @@
       <c r="K28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2265,7 +2269,7 @@
           <t>Tais Muller</t>
         </is>
       </c>
-      <c r="E29" s="10" t="inlineStr">
+      <c r="E29" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2294,7 +2298,7 @@
       <c r="K29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="inlineStr">
+      <c r="A30" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2314,7 +2318,7 @@
           <t>Eusebio Lima Deltrejo</t>
         </is>
       </c>
-      <c r="E30" s="10" t="inlineStr">
+      <c r="E30" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2339,7 +2343,7 @@
       <c r="K30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="15" t="inlineStr">
+      <c r="A31" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -2359,7 +2363,7 @@
           <t>Isadora Bussmann Barsotti</t>
         </is>
       </c>
-      <c r="E31" s="10" t="inlineStr">
+      <c r="E31" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2384,7 +2388,7 @@
       <c r="K31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="16" t="inlineStr">
+      <c r="A32" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -2404,7 +2408,7 @@
           <t>Osair Wrublak</t>
         </is>
       </c>
-      <c r="E32" s="10" t="inlineStr">
+      <c r="E32" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2429,7 +2433,7 @@
       <c r="K32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="inlineStr">
+      <c r="A33" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2451,12 +2455,12 @@
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F33" s="7" t="inlineStr">
         <is>
-          <t>07/02/2025, 07/02/2025</t>
+          <t>07/02/2025</t>
         </is>
       </c>
       <c r="G33" s="9" t="inlineStr">
@@ -2476,13 +2480,17 @@
       </c>
       <c r="J33" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K33" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K33" s="7" t="inlineStr">
+        <is>
+          <t>Deletado 69</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="inlineStr">
+      <c r="A34" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2502,7 +2510,7 @@
           <t>Rayra Emanuelly da Costa</t>
         </is>
       </c>
-      <c r="E34" s="10" t="inlineStr">
+      <c r="E34" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2527,7 +2535,7 @@
       <c r="K34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="inlineStr">
+      <c r="A35" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2547,7 +2555,7 @@
           <t>Suzana Gotardo de Meira</t>
         </is>
       </c>
-      <c r="E35" s="10" t="inlineStr">
+      <c r="E35" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2572,7 +2580,7 @@
       <c r="K35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="inlineStr">
+      <c r="A36" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2592,7 +2600,7 @@
           <t>Mariangela Lurdes de Borba</t>
         </is>
       </c>
-      <c r="E36" s="10" t="inlineStr">
+      <c r="E36" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2617,7 +2625,7 @@
       <c r="K36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="inlineStr">
+      <c r="A37" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -2637,7 +2645,7 @@
           <t>Patricia Teixeira dos Santos</t>
         </is>
       </c>
-      <c r="E37" s="10" t="inlineStr">
+      <c r="E37" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2662,7 +2670,7 @@
       <c r="K37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="inlineStr">
+      <c r="A38" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -2682,7 +2690,7 @@
           <t>Anderson Batista Siqueira</t>
         </is>
       </c>
-      <c r="E38" s="10" t="inlineStr">
+      <c r="E38" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2707,7 +2715,7 @@
       <c r="K38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="inlineStr">
+      <c r="A39" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -2727,7 +2735,7 @@
           <t>Aramis Vinicius de Paula Oliveira</t>
         </is>
       </c>
-      <c r="E39" s="8" t="inlineStr">
+      <c r="E39" s="18" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -2776,7 +2784,7 @@
           <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
         </is>
       </c>
-      <c r="E40" s="10" t="inlineStr">
+      <c r="E40" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2801,7 +2809,7 @@
       <c r="K40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="inlineStr">
+      <c r="A41" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -2821,7 +2829,7 @@
           <t>Gustavo Henrique de Andrade</t>
         </is>
       </c>
-      <c r="E41" s="10" t="inlineStr">
+      <c r="E41" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2846,7 +2854,7 @@
       <c r="K41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="16" t="inlineStr">
+      <c r="A42" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -2866,7 +2874,7 @@
           <t>Ricardo Pyc</t>
         </is>
       </c>
-      <c r="E42" s="10" t="inlineStr">
+      <c r="E42" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2891,7 +2899,7 @@
       <c r="K42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="12" t="inlineStr">
+      <c r="A43" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -2911,7 +2919,7 @@
           <t>Camila Maytana Flores da Silva</t>
         </is>
       </c>
-      <c r="E43" s="10" t="inlineStr">
+      <c r="E43" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2936,7 +2944,7 @@
       <c r="K43" s="7" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="16" t="inlineStr">
+      <c r="A44" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -2956,7 +2964,7 @@
           <t>Claudiana Andria</t>
         </is>
       </c>
-      <c r="E44" s="10" t="inlineStr">
+      <c r="E44" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2981,7 +2989,7 @@
       <c r="K44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="inlineStr">
+      <c r="A45" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -3001,7 +3009,7 @@
           <t>Daiana Aparecida Dias</t>
         </is>
       </c>
-      <c r="E45" s="10" t="inlineStr">
+      <c r="E45" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3026,7 +3034,7 @@
       <c r="K45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="inlineStr">
+      <c r="A46" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -3046,7 +3054,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E46" s="10" t="inlineStr">
+      <c r="E46" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3071,7 +3079,7 @@
       <c r="K46" s="7" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="15" t="inlineStr">
+      <c r="A47" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -3091,7 +3099,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E47" s="10" t="inlineStr">
+      <c r="E47" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3116,7 +3124,7 @@
       <c r="K47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="15" t="inlineStr">
+      <c r="A48" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -3138,12 +3146,12 @@
       </c>
       <c r="E48" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F48" s="7" t="inlineStr">
         <is>
-          <t>10/02/2025, 10/02/2025</t>
+          <t>10/02/2025</t>
         </is>
       </c>
       <c r="G48" s="9" t="inlineStr">
@@ -3163,13 +3171,17 @@
       </c>
       <c r="J48" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K48" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K48" s="7" t="inlineStr">
+        <is>
+          <t>Deletado 79</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="inlineStr">
+      <c r="A49" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -3189,7 +3201,7 @@
           <t>Moacir Roberto Heimann</t>
         </is>
       </c>
-      <c r="E49" s="10" t="inlineStr">
+      <c r="E49" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3214,7 +3226,7 @@
       <c r="K49" s="7" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="16" t="inlineStr">
+      <c r="A50" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -3236,12 +3248,12 @@
       </c>
       <c r="E50" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F50" s="7" t="inlineStr">
         <is>
-          <t>05/02/2025, 10/02/2025</t>
+          <t>10/02/2025</t>
         </is>
       </c>
       <c r="G50" s="9" t="inlineStr">
@@ -3261,13 +3273,17 @@
       </c>
       <c r="J50" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K50" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K50" s="7" t="inlineStr">
+        <is>
+          <t>Deletado 63</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="inlineStr">
+      <c r="A51" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -3287,7 +3303,7 @@
           <t>Ana Carolina Bertolaccini</t>
         </is>
       </c>
-      <c r="E51" s="10" t="inlineStr">
+      <c r="E51" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3332,7 +3348,7 @@
           <t>Maristela da Silva de Oliveira Melo</t>
         </is>
       </c>
-      <c r="E52" s="10" t="inlineStr">
+      <c r="E52" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3357,7 +3373,7 @@
       <c r="K52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="inlineStr">
+      <c r="A53" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -3377,7 +3393,7 @@
           <t>Yuri Luiz de Oliveira</t>
         </is>
       </c>
-      <c r="E53" s="10" t="inlineStr">
+      <c r="E53" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3402,7 +3418,7 @@
       <c r="K53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="16" t="inlineStr">
+      <c r="A54" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -3418,13 +3434,13 @@
         </is>
       </c>
       <c r="D54" s="7" t="n"/>
-      <c r="E54" s="17" t="inlineStr">
+      <c r="E54" s="16" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
       <c r="F54" s="7" t="n"/>
-      <c r="G54" s="18" t="inlineStr">
+      <c r="G54" s="17" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3461,12 +3477,12 @@
       </c>
       <c r="E55" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F55" s="7" t="inlineStr">
         <is>
-          <t>28/03/2025, 28/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="G55" s="9" t="inlineStr">
@@ -3482,13 +3498,17 @@
       </c>
       <c r="J55" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K55" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K55" s="7" t="inlineStr">
+        <is>
+          <t>Deletado 134</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="inlineStr">
+      <c r="A56" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -3508,7 +3528,7 @@
           <t>Diego Batista</t>
         </is>
       </c>
-      <c r="E56" s="10" t="inlineStr">
+      <c r="E56" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3533,7 +3553,7 @@
       <c r="K56" s="7" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="inlineStr">
+      <c r="A57" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -3553,7 +3573,7 @@
           <t>Liandra Sartor da Silva</t>
         </is>
       </c>
-      <c r="E57" s="10" t="inlineStr">
+      <c r="E57" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3578,7 +3598,7 @@
       <c r="K57" s="7" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="15" t="inlineStr">
+      <c r="A58" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -3600,12 +3620,12 @@
       </c>
       <c r="E58" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F58" s="7" t="inlineStr">
         <is>
-          <t>06/02/2025, 10/02/2025</t>
+          <t>10/02/2025</t>
         </is>
       </c>
       <c r="G58" s="9" t="inlineStr">
@@ -3625,10 +3645,14 @@
       </c>
       <c r="J58" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K58" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K58" s="7" t="inlineStr">
+        <is>
+          <t>Deletado o 65</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -3791,15 +3815,15 @@
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>01/04/2025, 08/04/2025</t>
-        </is>
-      </c>
-      <c r="G2" s="18" t="inlineStr">
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="G2" s="17" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3816,10 +3840,14 @@
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K2" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K2" s="7" t="inlineStr">
+        <is>
+          <t>Deletado 167</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -3842,7 +3870,7 @@
           <t>Marcia Regina Willers</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3867,7 +3895,7 @@
       <c r="K3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -3887,7 +3915,7 @@
           <t>Amanda Tayara Ribeiro da Silva</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3932,7 +3960,7 @@
           <t>Vagner Perseti Alves</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3969,7 +3997,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -3989,7 +4017,7 @@
           <t>Tania Grespan</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4014,7 +4042,7 @@
       <c r="K6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -4034,7 +4062,7 @@
           <t>Daniele de Souza Lima Mei</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4059,7 +4087,7 @@
       <c r="K7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -4079,7 +4107,7 @@
           <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
         </is>
       </c>
-      <c r="E8" s="10" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4104,7 +4132,7 @@
       <c r="K8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="inlineStr">
+      <c r="A9" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -4124,7 +4152,7 @@
           <t>Elder Arantes</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4149,7 +4177,7 @@
       <c r="K9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="inlineStr">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -4169,7 +4197,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4194,7 +4222,7 @@
       <c r="K10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="inlineStr">
+      <c r="A11" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -4214,7 +4242,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E11" s="10" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4239,7 +4267,7 @@
       <c r="K11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="inlineStr">
+      <c r="A12" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -4259,7 +4287,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4284,7 +4312,7 @@
       <c r="K12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="inlineStr">
+      <c r="A13" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -4304,7 +4332,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E13" s="10" t="inlineStr">
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4329,7 +4357,7 @@
       <c r="K13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -4349,7 +4377,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4374,7 +4402,7 @@
       <c r="K14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="inlineStr">
+      <c r="A15" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -4394,7 +4422,7 @@
           <t>Evellyn Renata Bereza Bueno</t>
         </is>
       </c>
-      <c r="E15" s="10" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4419,7 +4447,7 @@
       <c r="K15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="inlineStr">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -4439,7 +4467,7 @@
           <t>Anandra da Silva</t>
         </is>
       </c>
-      <c r="E16" s="10" t="inlineStr">
+      <c r="E16" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4464,7 +4492,7 @@
       <c r="K16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="A17" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -4484,7 +4512,7 @@
           <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
         </is>
       </c>
-      <c r="E17" s="10" t="inlineStr">
+      <c r="E17" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4529,7 +4557,7 @@
           <t>Jéssica da Silva Bortolozzo</t>
         </is>
       </c>
-      <c r="E18" s="10" t="inlineStr">
+      <c r="E18" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4558,7 +4586,7 @@
       <c r="K18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -4574,13 +4602,13 @@
         </is>
       </c>
       <c r="D19" s="7" t="n"/>
-      <c r="E19" s="17" t="inlineStr">
+      <c r="E19" s="16" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
       <c r="F19" s="7" t="n"/>
-      <c r="G19" s="18" t="inlineStr">
+      <c r="G19" s="17" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4615,7 +4643,7 @@
           <t>Bianca Monteiro</t>
         </is>
       </c>
-      <c r="E20" s="10" t="inlineStr">
+      <c r="E20" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4640,7 +4668,7 @@
       <c r="K20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="inlineStr">
+      <c r="A21" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -4660,7 +4688,7 @@
           <t>Augusto Cesar Nunes</t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr">
+      <c r="E21" s="18" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -4685,7 +4713,7 @@
       <c r="K21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="inlineStr">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -4705,7 +4733,7 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E22" s="8" t="inlineStr">
+      <c r="E22" s="18" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -4730,7 +4758,7 @@
       <c r="K22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="inlineStr">
+      <c r="A23" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -4750,7 +4778,7 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E23" s="10" t="inlineStr">
+      <c r="E23" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4775,7 +4803,7 @@
       <c r="K23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="inlineStr">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -4795,7 +4823,7 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E24" s="10" t="inlineStr">
+      <c r="E24" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4820,7 +4848,7 @@
       <c r="K24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="inlineStr">
+      <c r="A25" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -4842,12 +4870,12 @@
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t>27/03/2025, 26/03/2025</t>
+          <t>27/03/2025</t>
         </is>
       </c>
       <c r="G25" s="9" t="inlineStr">
@@ -4867,13 +4895,17 @@
       </c>
       <c r="J25" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K25" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K25" s="7" t="inlineStr">
+        <is>
+          <t>Deletado 150</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="inlineStr">
+      <c r="A26" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -4893,7 +4925,7 @@
           <t>Rodrigo Lima</t>
         </is>
       </c>
-      <c r="E26" s="10" t="inlineStr">
+      <c r="E26" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4918,7 +4950,7 @@
       <c r="K26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="inlineStr">
+      <c r="A27" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -4938,7 +4970,7 @@
           <t>Savana Lemes Rodrigues</t>
         </is>
       </c>
-      <c r="E27" s="10" t="inlineStr">
+      <c r="E27" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -4963,7 +4995,7 @@
       <c r="K27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="inlineStr">
+      <c r="A28" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -4983,7 +5015,7 @@
           <t>Letícia Diniz</t>
         </is>
       </c>
-      <c r="E28" s="10" t="inlineStr">
+      <c r="E28" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5020,7 +5052,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -5040,7 +5072,7 @@
           <t>Tais Muller</t>
         </is>
       </c>
-      <c r="E29" s="10" t="inlineStr">
+      <c r="E29" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5065,7 +5097,7 @@
       <c r="K29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="inlineStr">
+      <c r="A30" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -5085,7 +5117,7 @@
           <t>Eusebio Lima Deltrejo</t>
         </is>
       </c>
-      <c r="E30" s="10" t="inlineStr">
+      <c r="E30" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5110,7 +5142,7 @@
       <c r="K30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="15" t="inlineStr">
+      <c r="A31" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -5130,7 +5162,7 @@
           <t>Isadora Bussmann Barsotti</t>
         </is>
       </c>
-      <c r="E31" s="10" t="inlineStr">
+      <c r="E31" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5155,7 +5187,7 @@
       <c r="K31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="16" t="inlineStr">
+      <c r="A32" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -5175,7 +5207,7 @@
           <t>Osair Wrublak</t>
         </is>
       </c>
-      <c r="E32" s="10" t="inlineStr">
+      <c r="E32" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5200,7 +5232,7 @@
       <c r="K32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="inlineStr">
+      <c r="A33" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -5220,7 +5252,7 @@
           <t>Gislaine Souza Rosa</t>
         </is>
       </c>
-      <c r="E33" s="10" t="inlineStr">
+      <c r="E33" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5245,7 +5277,7 @@
       <c r="K33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="inlineStr">
+      <c r="A34" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -5265,7 +5297,7 @@
           <t>Rayra Emanuelly da Costa</t>
         </is>
       </c>
-      <c r="E34" s="10" t="inlineStr">
+      <c r="E34" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5302,7 +5334,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="inlineStr">
+      <c r="A35" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -5322,7 +5354,7 @@
           <t>Suzana Gotardo de Meira</t>
         </is>
       </c>
-      <c r="E35" s="10" t="inlineStr">
+      <c r="E35" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5347,7 +5379,7 @@
       <c r="K35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="inlineStr">
+      <c r="A36" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -5367,7 +5399,7 @@
           <t>Mariangela Lurdes de Borba</t>
         </is>
       </c>
-      <c r="E36" s="8" t="inlineStr">
+      <c r="E36" s="18" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -5392,7 +5424,7 @@
       <c r="K36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="inlineStr">
+      <c r="A37" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -5412,7 +5444,7 @@
           <t>Patricia Teixeira dos Santos</t>
         </is>
       </c>
-      <c r="E37" s="10" t="inlineStr">
+      <c r="E37" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5437,7 +5469,7 @@
       <c r="K37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="inlineStr">
+      <c r="A38" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -5457,7 +5489,7 @@
           <t>Anderson Batista Siqueira</t>
         </is>
       </c>
-      <c r="E38" s="10" t="inlineStr">
+      <c r="E38" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5482,7 +5514,7 @@
       <c r="K38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="inlineStr">
+      <c r="A39" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -5502,7 +5534,7 @@
           <t>Aramis Vinicius de Paula Oliveira</t>
         </is>
       </c>
-      <c r="E39" s="10" t="inlineStr">
+      <c r="E39" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5547,7 +5579,7 @@
           <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
         </is>
       </c>
-      <c r="E40" s="10" t="inlineStr">
+      <c r="E40" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5576,7 +5608,7 @@
       <c r="K40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="inlineStr">
+      <c r="A41" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -5598,12 +5630,12 @@
       </c>
       <c r="E41" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F41" s="7" t="inlineStr">
         <is>
-          <t>06/05/2025, 27/03/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="G41" s="9" t="inlineStr">
@@ -5623,13 +5655,17 @@
       </c>
       <c r="J41" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K41" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>Deletado 153</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="16" t="inlineStr">
+      <c r="A42" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -5649,7 +5685,7 @@
           <t>Ricardo Pyc</t>
         </is>
       </c>
-      <c r="E42" s="10" t="inlineStr">
+      <c r="E42" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5674,7 +5710,7 @@
       <c r="K42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="12" t="inlineStr">
+      <c r="A43" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -5694,7 +5730,7 @@
           <t>Camila Maytana Flores da Silva</t>
         </is>
       </c>
-      <c r="E43" s="10" t="inlineStr">
+      <c r="E43" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5719,7 +5755,7 @@
       <c r="K43" s="7" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="16" t="inlineStr">
+      <c r="A44" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -5739,7 +5775,7 @@
           <t>Claudiana Andria</t>
         </is>
       </c>
-      <c r="E44" s="10" t="inlineStr">
+      <c r="E44" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5764,7 +5800,7 @@
       <c r="K44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="inlineStr">
+      <c r="A45" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -5784,7 +5820,7 @@
           <t>Daiana Aparecida Dias</t>
         </is>
       </c>
-      <c r="E45" s="10" t="inlineStr">
+      <c r="E45" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5809,7 +5845,7 @@
       <c r="K45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="inlineStr">
+      <c r="A46" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -5829,7 +5865,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E46" s="10" t="inlineStr">
+      <c r="E46" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5854,7 +5890,7 @@
       <c r="K46" s="7" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="15" t="inlineStr">
+      <c r="A47" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -5874,7 +5910,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E47" s="10" t="inlineStr">
+      <c r="E47" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5899,7 +5935,7 @@
       <c r="K47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="15" t="inlineStr">
+      <c r="A48" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -5919,7 +5955,7 @@
           <t>Jean Eriksen de Miranda</t>
         </is>
       </c>
-      <c r="E48" s="10" t="inlineStr">
+      <c r="E48" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5944,7 +5980,7 @@
       <c r="K48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="inlineStr">
+      <c r="A49" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -5964,7 +6000,7 @@
           <t>Moacir Roberto Heimann</t>
         </is>
       </c>
-      <c r="E49" s="10" t="inlineStr">
+      <c r="E49" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5989,7 +6025,7 @@
       <c r="K49" s="7" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="16" t="inlineStr">
+      <c r="A50" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -6009,7 +6045,7 @@
           <t>Vilmar Ribeiro</t>
         </is>
       </c>
-      <c r="E50" s="8" t="inlineStr">
+      <c r="E50" s="18" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -6034,7 +6070,7 @@
       <c r="K50" s="7" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="inlineStr">
+      <c r="A51" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -6054,7 +6090,7 @@
           <t>Ana Carolina Bertolaccini</t>
         </is>
       </c>
-      <c r="E51" s="10" t="inlineStr">
+      <c r="E51" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6099,7 +6135,7 @@
           <t>Maristela da Silva de Oliveira Melo</t>
         </is>
       </c>
-      <c r="E52" s="10" t="inlineStr">
+      <c r="E52" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6109,7 +6145,7 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="18" t="inlineStr">
+      <c r="G52" s="17" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6124,7 +6160,7 @@
       <c r="K52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="inlineStr">
+      <c r="A53" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -6144,7 +6180,7 @@
           <t>Yuri Luiz de Oliveira</t>
         </is>
       </c>
-      <c r="E53" s="10" t="inlineStr">
+      <c r="E53" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6169,7 +6205,7 @@
       <c r="K53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="16" t="inlineStr">
+      <c r="A54" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -6185,13 +6221,13 @@
         </is>
       </c>
       <c r="D54" s="7" t="n"/>
-      <c r="E54" s="17" t="inlineStr">
+      <c r="E54" s="16" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
       <c r="F54" s="7" t="n"/>
-      <c r="G54" s="18" t="inlineStr">
+      <c r="G54" s="17" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6228,12 +6264,12 @@
       </c>
       <c r="E55" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F55" s="7" t="inlineStr">
         <is>
-          <t>28/03/2025, 28/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="G55" s="9" t="inlineStr">
@@ -6249,13 +6285,17 @@
       </c>
       <c r="J55" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K55" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K55" s="7" t="inlineStr">
+        <is>
+          <t>Deletado 163</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="inlineStr">
+      <c r="A56" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -6277,12 +6317,12 @@
       </c>
       <c r="E56" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F56" s="7" t="inlineStr">
         <is>
-          <t>27/03/2025, 05/06/2025, 05/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="G56" s="9" t="inlineStr">
@@ -6302,13 +6342,17 @@
       </c>
       <c r="J56" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K56" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K56" s="7" t="inlineStr">
+        <is>
+          <t>Deletados 156 e 204</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="inlineStr">
+      <c r="A57" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -6328,7 +6372,7 @@
           <t>Fernanda Naiara Voinarski</t>
         </is>
       </c>
-      <c r="E57" s="10" t="inlineStr">
+      <c r="E57" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6353,7 +6397,7 @@
       <c r="K57" s="7" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="15" t="inlineStr">
+      <c r="A58" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -6373,7 +6417,7 @@
           <t>Pablo Bruno Rosa Oliveira</t>
         </is>
       </c>
-      <c r="E58" s="10" t="inlineStr">
+      <c r="E58" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6568,7 +6612,7 @@
           <t>Marcia do Nascimento</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6625,7 +6669,7 @@
           <t>Marcia Regina Willers</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6654,7 +6698,7 @@
       <c r="K3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -6674,7 +6718,7 @@
           <t>Amanda Tayara Ribeiro da Silva</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6719,7 +6763,7 @@
           <t>Vagner Perseti Alves</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6744,7 +6788,7 @@
       <c r="K5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -6764,7 +6808,7 @@
           <t>Tania Grespan</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6789,7 +6833,7 @@
       <c r="K6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -6809,7 +6853,7 @@
           <t>Daniele de Souza Lima Mei</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6834,7 +6878,7 @@
       <c r="K7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -6854,7 +6898,7 @@
           <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
         </is>
       </c>
-      <c r="E8" s="10" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6879,7 +6923,7 @@
       <c r="K8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="inlineStr">
+      <c r="A9" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -6899,7 +6943,7 @@
           <t>Elder Arantes</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6924,7 +6968,7 @@
       <c r="K9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="inlineStr">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -6944,7 +6988,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6969,7 +7013,7 @@
       <c r="K10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="inlineStr">
+      <c r="A11" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -6989,7 +7033,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E11" s="10" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7014,7 +7058,7 @@
       <c r="K11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="inlineStr">
+      <c r="A12" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -7034,7 +7078,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7059,7 +7103,7 @@
       <c r="K12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="inlineStr">
+      <c r="A13" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -7079,7 +7123,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E13" s="10" t="inlineStr">
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7104,7 +7148,7 @@
       <c r="K13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -7124,7 +7168,7 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7149,7 +7193,7 @@
       <c r="K14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="inlineStr">
+      <c r="A15" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -7169,7 +7213,7 @@
           <t>Evellyn Renata Bereza Bueno</t>
         </is>
       </c>
-      <c r="E15" s="10" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7194,7 +7238,7 @@
       <c r="K15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="inlineStr">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -7214,7 +7258,7 @@
           <t>Anandra da Silva</t>
         </is>
       </c>
-      <c r="E16" s="10" t="inlineStr">
+      <c r="E16" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7239,7 +7283,7 @@
       <c r="K16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="A17" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -7259,7 +7303,7 @@
           <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
         </is>
       </c>
-      <c r="E17" s="10" t="inlineStr">
+      <c r="E17" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7316,7 +7360,7 @@
           <t>Jéssica da Silva Bortolozzo</t>
         </is>
       </c>
-      <c r="E18" s="10" t="inlineStr">
+      <c r="E18" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7341,7 +7385,7 @@
       <c r="K18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -7357,13 +7401,13 @@
         </is>
       </c>
       <c r="D19" s="7" t="n"/>
-      <c r="E19" s="17" t="inlineStr">
+      <c r="E19" s="16" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
       <c r="F19" s="7" t="n"/>
-      <c r="G19" s="18" t="inlineStr">
+      <c r="G19" s="17" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7398,7 +7442,7 @@
           <t>Bianca Monteiro</t>
         </is>
       </c>
-      <c r="E20" s="10" t="inlineStr">
+      <c r="E20" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7423,7 +7467,7 @@
       <c r="K20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="inlineStr">
+      <c r="A21" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -7443,7 +7487,7 @@
           <t>Augusto Cesar Nunes</t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr">
+      <c r="E21" s="18" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7468,7 +7512,7 @@
       <c r="K21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="inlineStr">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -7488,7 +7532,7 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E22" s="10" t="inlineStr">
+      <c r="E22" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7513,7 +7557,7 @@
       <c r="K22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="inlineStr">
+      <c r="A23" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -7533,7 +7577,7 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E23" s="10" t="inlineStr">
+      <c r="E23" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7558,7 +7602,7 @@
       <c r="K23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="inlineStr">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -7578,7 +7622,7 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E24" s="10" t="inlineStr">
+      <c r="E24" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7603,7 +7647,7 @@
       <c r="K24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="inlineStr">
+      <c r="A25" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -7623,7 +7667,7 @@
           <t>Marcos Alexandre Cordeiro Esmocoviski</t>
         </is>
       </c>
-      <c r="E25" s="10" t="inlineStr">
+      <c r="E25" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7648,7 +7692,7 @@
       <c r="K25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="inlineStr">
+      <c r="A26" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -7668,7 +7712,7 @@
           <t>Rodrigo Lima</t>
         </is>
       </c>
-      <c r="E26" s="10" t="inlineStr">
+      <c r="E26" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7693,7 +7737,7 @@
       <c r="K26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="inlineStr">
+      <c r="A27" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -7713,7 +7757,7 @@
           <t>Savana Lemes Rodrigues</t>
         </is>
       </c>
-      <c r="E27" s="10" t="inlineStr">
+      <c r="E27" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7738,7 +7782,7 @@
       <c r="K27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="inlineStr">
+      <c r="A28" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -7758,7 +7802,7 @@
           <t>Letícia Diniz</t>
         </is>
       </c>
-      <c r="E28" s="10" t="inlineStr">
+      <c r="E28" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7783,7 +7827,7 @@
       <c r="K28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -7803,7 +7847,7 @@
           <t>Tais Muller</t>
         </is>
       </c>
-      <c r="E29" s="10" t="inlineStr">
+      <c r="E29" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7828,7 +7872,7 @@
       <c r="K29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="inlineStr">
+      <c r="A30" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -7848,7 +7892,7 @@
           <t>Eusebio Lima Deltrejo</t>
         </is>
       </c>
-      <c r="E30" s="10" t="inlineStr">
+      <c r="E30" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7873,7 +7917,7 @@
       <c r="K30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="15" t="inlineStr">
+      <c r="A31" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -7893,7 +7937,7 @@
           <t>Isadora Bussmann Barsotti</t>
         </is>
       </c>
-      <c r="E31" s="10" t="inlineStr">
+      <c r="E31" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7918,7 +7962,7 @@
       <c r="K31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="16" t="inlineStr">
+      <c r="A32" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -7938,7 +7982,7 @@
           <t>Osair Wrublak</t>
         </is>
       </c>
-      <c r="E32" s="10" t="inlineStr">
+      <c r="E32" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7963,7 +8007,7 @@
       <c r="K32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="inlineStr">
+      <c r="A33" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -7983,7 +8027,7 @@
           <t>Gislaine Souza Rosa</t>
         </is>
       </c>
-      <c r="E33" s="10" t="inlineStr">
+      <c r="E33" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8008,7 +8052,7 @@
       <c r="K33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="inlineStr">
+      <c r="A34" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -8028,7 +8072,7 @@
           <t>Rayra Emanuelly da Costa</t>
         </is>
       </c>
-      <c r="E34" s="10" t="inlineStr">
+      <c r="E34" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8053,7 +8097,7 @@
       <c r="K34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="inlineStr">
+      <c r="A35" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -8075,12 +8119,12 @@
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F35" s="7" t="inlineStr">
         <is>
-          <t>25/03/2025, 06/05/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="G35" s="9" t="inlineStr">
@@ -8096,13 +8140,17 @@
       </c>
       <c r="J35" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K35" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K35" s="7" t="inlineStr">
+        <is>
+          <t>Deletado 172</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="inlineStr">
+      <c r="A36" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -8122,7 +8170,7 @@
           <t>Mariangela Lurdes de Borba</t>
         </is>
       </c>
-      <c r="E36" s="10" t="inlineStr">
+      <c r="E36" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8147,7 +8195,7 @@
       <c r="K36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="inlineStr">
+      <c r="A37" s="13" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -8167,7 +8215,7 @@
           <t>Patricia Teixeira dos Santos</t>
         </is>
       </c>
-      <c r="E37" s="10" t="inlineStr">
+      <c r="E37" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8192,7 +8240,7 @@
       <c r="K37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="inlineStr">
+      <c r="A38" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -8212,7 +8260,7 @@
           <t>Anderson Batista Siqueira</t>
         </is>
       </c>
-      <c r="E38" s="10" t="inlineStr">
+      <c r="E38" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8237,7 +8285,7 @@
       <c r="K38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="inlineStr">
+      <c r="A39" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -8257,7 +8305,7 @@
           <t>Aramis Vinicius de Paula Oliveira</t>
         </is>
       </c>
-      <c r="E39" s="10" t="inlineStr">
+      <c r="E39" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8302,7 +8350,7 @@
           <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
         </is>
       </c>
-      <c r="E40" s="10" t="inlineStr">
+      <c r="E40" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8327,7 +8375,7 @@
       <c r="K40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="inlineStr">
+      <c r="A41" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -8347,7 +8395,7 @@
           <t>Gustavo Henrique de Andrade</t>
         </is>
       </c>
-      <c r="E41" s="10" t="inlineStr">
+      <c r="E41" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8372,7 +8420,7 @@
       <c r="K41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="16" t="inlineStr">
+      <c r="A42" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -8392,7 +8440,7 @@
           <t>Ricardo Pyc</t>
         </is>
       </c>
-      <c r="E42" s="10" t="inlineStr">
+      <c r="E42" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8417,7 +8465,7 @@
       <c r="K42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="12" t="inlineStr">
+      <c r="A43" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -8437,7 +8485,7 @@
           <t>Camila Maytana Flores da Silva</t>
         </is>
       </c>
-      <c r="E43" s="10" t="inlineStr">
+      <c r="E43" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8462,7 +8510,7 @@
       <c r="K43" s="7" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="16" t="inlineStr">
+      <c r="A44" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -8482,7 +8530,7 @@
           <t>Claudiana Andria</t>
         </is>
       </c>
-      <c r="E44" s="10" t="inlineStr">
+      <c r="E44" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8507,7 +8555,7 @@
       <c r="K44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="inlineStr">
+      <c r="A45" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -8527,7 +8575,7 @@
           <t>Daiana Aparecida Dias</t>
         </is>
       </c>
-      <c r="E45" s="10" t="inlineStr">
+      <c r="E45" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8552,7 +8600,7 @@
       <c r="K45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="inlineStr">
+      <c r="A46" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -8572,7 +8620,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E46" s="10" t="inlineStr">
+      <c r="E46" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8597,7 +8645,7 @@
       <c r="K46" s="7" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="15" t="inlineStr">
+      <c r="A47" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -8617,7 +8665,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E47" s="10" t="inlineStr">
+      <c r="E47" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8642,7 +8690,7 @@
       <c r="K47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="15" t="inlineStr">
+      <c r="A48" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -8662,7 +8710,7 @@
           <t>Jean Eriksen de Miranda</t>
         </is>
       </c>
-      <c r="E48" s="8" t="inlineStr">
+      <c r="E48" s="18" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -8687,7 +8735,7 @@
       <c r="K48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="inlineStr">
+      <c r="A49" s="11" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -8707,7 +8755,7 @@
           <t>Moacir Roberto Heimann</t>
         </is>
       </c>
-      <c r="E49" s="10" t="inlineStr">
+      <c r="E49" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8732,7 +8780,7 @@
       <c r="K49" s="7" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="16" t="inlineStr">
+      <c r="A50" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -8752,7 +8800,7 @@
           <t>Vilmar Ribeiro</t>
         </is>
       </c>
-      <c r="E50" s="10" t="inlineStr">
+      <c r="E50" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8777,7 +8825,7 @@
       <c r="K50" s="7" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="inlineStr">
+      <c r="A51" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -8797,7 +8845,7 @@
           <t>Ana Carolina Bertolaccini</t>
         </is>
       </c>
-      <c r="E51" s="10" t="inlineStr">
+      <c r="E51" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8842,7 +8890,7 @@
           <t>Maristela da Silva de Oliveira Melo</t>
         </is>
       </c>
-      <c r="E52" s="10" t="inlineStr">
+      <c r="E52" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8867,7 +8915,7 @@
       <c r="K52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="inlineStr">
+      <c r="A53" s="12" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -8887,7 +8935,7 @@
           <t>Yuri Luiz de Oliveira</t>
         </is>
       </c>
-      <c r="E53" s="10" t="inlineStr">
+      <c r="E53" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8912,7 +8960,7 @@
       <c r="K53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="16" t="inlineStr">
+      <c r="A54" s="15" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -8928,13 +8976,13 @@
         </is>
       </c>
       <c r="D54" s="7" t="n"/>
-      <c r="E54" s="17" t="inlineStr">
+      <c r="E54" s="16" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
       <c r="F54" s="7" t="n"/>
-      <c r="G54" s="18" t="inlineStr">
+      <c r="G54" s="17" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8971,12 +9019,12 @@
       </c>
       <c r="E55" s="8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F55" s="7" t="inlineStr">
         <is>
-          <t>28/03/2025, 28/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="G55" s="9" t="inlineStr">
@@ -8992,13 +9040,17 @@
       </c>
       <c r="J55" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K55" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K55" s="7" t="inlineStr">
+        <is>
+          <t>Deletado 136</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="inlineStr">
+      <c r="A56" s="10" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -9018,7 +9070,7 @@
           <t>Diego Batista</t>
         </is>
       </c>
-      <c r="E56" s="10" t="inlineStr">
+      <c r="E56" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9043,7 +9095,7 @@
       <c r="K56" s="7" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="inlineStr">
+      <c r="A57" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -9063,7 +9115,7 @@
           <t>Fernanda Naiara Voinarski</t>
         </is>
       </c>
-      <c r="E57" s="10" t="inlineStr">
+      <c r="E57" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9100,7 +9152,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="15" t="inlineStr">
+      <c r="A58" s="14" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -9120,7 +9172,7 @@
           <t>Pablo Bruno Rosa Oliveira</t>
         </is>
       </c>
-      <c r="E58" s="10" t="inlineStr">
+      <c r="E58" s="8" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -34,18 +34,18 @@
     </font>
     <font>
       <name val="Aptos Narrow"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
     <font>
@@ -73,8 +73,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF3172C4"/>
+        <bgColor rgb="FF0066CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -165,30 +165,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left style="thin">
@@ -716,13 +702,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="2"/>
-    <col width="12.28515625" customWidth="1" min="3" max="3"/>
-    <col width="15.140625" customWidth="1" min="4" max="4"/>
+    <col width="12.85" customWidth="1" min="2" max="2"/>
+    <col width="12.28" customWidth="1" min="3" max="3"/>
+    <col width="15.14" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="15.140625" customWidth="1" min="6" max="6"/>
-    <col width="11.85546875" customWidth="1" min="7" max="7"/>
-    <col width="10.85546875" customWidth="1" min="8" max="8"/>
+    <col width="15.14" customWidth="1" min="6" max="6"/>
+    <col width="11.85" customWidth="1" min="7" max="7"/>
+    <col width="10.85" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -928,7 +914,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
@@ -3041,7 +3027,7 @@
       </c>
       <c r="B46" s="7" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t>Rio Branco Do Sul</t>
         </is>
       </c>
       <c r="C46" s="7" t="inlineStr">
@@ -3086,7 +3072,7 @@
       </c>
       <c r="B47" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t>Rio Branco Do Sul</t>
         </is>
       </c>
       <c r="C47" s="7" t="inlineStr">
@@ -3198,7 +3184,7 @@
       </c>
       <c r="D49" s="7" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
+          <t>Ana Paula Cigolini</t>
         </is>
       </c>
       <c r="E49" s="8" t="inlineStr">
@@ -3723,7 +3709,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
@@ -5852,7 +5838,7 @@
       </c>
       <c r="B46" s="7" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t>Rio Branco Do Sul</t>
         </is>
       </c>
       <c r="C46" s="7" t="inlineStr">
@@ -5897,7 +5883,7 @@
       </c>
       <c r="B47" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t>Rio Branco Do Sul</t>
         </is>
       </c>
       <c r="C47" s="7" t="inlineStr">
@@ -5997,7 +5983,7 @@
       </c>
       <c r="D49" s="7" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
+          <t>Ana Paula Cigolini</t>
         </is>
       </c>
       <c r="E49" s="8" t="inlineStr">
@@ -6522,7 +6508,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
@@ -8231,10 +8217,14 @@
         </is>
       </c>
       <c r="H37" s="7" t="n"/>
-      <c r="I37" s="7" t="n"/>
+      <c r="I37" s="7" t="inlineStr">
+        <is>
+          <t>Deletar ID83</t>
+        </is>
+      </c>
       <c r="J37" s="7" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Em Análise</t>
         </is>
       </c>
       <c r="K37" s="7" t="n"/>
@@ -8607,7 +8597,7 @@
       </c>
       <c r="B46" s="7" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t>Rio Branco Do Sul</t>
         </is>
       </c>
       <c r="C46" s="7" t="inlineStr">
@@ -8652,7 +8642,7 @@
       </c>
       <c r="B47" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t>Rio Branco Do Sul</t>
         </is>
       </c>
       <c r="C47" s="7" t="inlineStr">
@@ -8670,7 +8660,11 @@
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F47" s="7" t="n"/>
+      <c r="F47" s="7" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
       <c r="G47" s="9" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -8752,7 +8746,7 @@
       </c>
       <c r="D49" s="7" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
+          <t>Ana Paula Cigolini</t>
         </is>
       </c>
       <c r="E49" s="8" t="inlineStr">

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -8201,9 +8201,9 @@
           <t>Patricia Teixeira dos Santos</t>
         </is>
       </c>
-      <c r="E37" s="8" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E37" s="18" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F37" s="7" t="inlineStr">

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -3711,7 +3711,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="39" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -3794,10 +3794,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
@@ -3851,10 +3850,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="8" t="inlineStr">
         <is>
@@ -3896,10 +3894,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="8" t="inlineStr">
         <is>
@@ -3941,10 +3938,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
@@ -3998,10 +3994,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="8" t="inlineStr">
         <is>
@@ -4043,10 +4038,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="8" t="inlineStr">
         <is>
@@ -4088,10 +4082,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="8" t="inlineStr">
         <is>
@@ -4133,10 +4126,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
@@ -4178,10 +4170,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
@@ -4223,10 +4214,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="8" t="inlineStr">
         <is>
@@ -4268,10 +4258,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="8" t="inlineStr">
         <is>
@@ -4313,10 +4302,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="8" t="inlineStr">
         <is>
@@ -4358,10 +4346,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="8" t="inlineStr">
         <is>
@@ -4403,10 +4390,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="8" t="inlineStr">
         <is>
@@ -4448,10 +4434,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="8" t="inlineStr">
         <is>
@@ -4493,10 +4478,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="8" t="inlineStr">
         <is>
@@ -4538,10 +4522,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="8" t="inlineStr">
         <is>
@@ -4587,7 +4570,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="7" t="n"/>
+      <c r="D19" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="16" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
@@ -4624,10 +4610,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
@@ -4669,10 +4654,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="18" t="inlineStr">
         <is>
@@ -4714,10 +4698,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="7" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="18" t="inlineStr">
         <is>
@@ -4759,10 +4742,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="7" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
@@ -4804,10 +4786,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
@@ -4849,10 +4830,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
@@ -4906,10 +4886,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="7" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
@@ -4951,10 +4930,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
@@ -4996,10 +4974,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="7" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
@@ -5053,10 +5030,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
@@ -5098,10 +5074,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="7" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
@@ -5143,10 +5118,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="7" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
@@ -5188,10 +5162,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="7" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
@@ -5233,10 +5206,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="7" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
@@ -5278,10 +5250,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="7" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
@@ -5335,10 +5306,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
@@ -5380,10 +5350,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="7" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="18" t="inlineStr">
         <is>
@@ -5425,10 +5394,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="7" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="8" t="inlineStr">
         <is>
@@ -5470,10 +5438,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="7" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="8" t="inlineStr">
         <is>
@@ -5515,10 +5482,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="7" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="8" t="inlineStr">
         <is>
@@ -5560,10 +5526,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="7" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="8" t="inlineStr">
         <is>
@@ -5609,10 +5574,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="7" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="8" t="inlineStr">
         <is>
@@ -5666,10 +5630,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="7" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="8" t="inlineStr">
         <is>
@@ -5711,10 +5674,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="7" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="8" t="inlineStr">
         <is>
@@ -5756,10 +5718,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="7" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="8" t="inlineStr">
         <is>
@@ -5801,10 +5762,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="7" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="8" t="inlineStr">
         <is>
@@ -5846,10 +5806,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="7" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="8" t="inlineStr">
         <is>
@@ -5891,10 +5850,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="7" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="8" t="inlineStr">
         <is>
@@ -5936,10 +5894,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="7" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="8" t="inlineStr">
         <is>
@@ -5981,10 +5938,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="7" t="inlineStr">
-        <is>
-          <t>Ana Paula Cigolini</t>
-        </is>
+      <c r="D49" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="8" t="inlineStr">
         <is>
@@ -6026,10 +5982,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="7" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="18" t="inlineStr">
         <is>
@@ -6071,10 +6026,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="7" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="8" t="inlineStr">
         <is>
@@ -6116,10 +6070,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="7" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="8" t="inlineStr">
         <is>
@@ -6161,10 +6114,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="7" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="8" t="inlineStr">
         <is>
@@ -6206,7 +6158,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="7" t="n"/>
+      <c r="D54" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="16" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
@@ -6243,10 +6198,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="7" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="8" t="inlineStr">
         <is>
@@ -6296,10 +6250,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="8" t="inlineStr">
         <is>
@@ -6353,10 +6306,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="7" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="8" t="inlineStr">
         <is>
@@ -6398,10 +6350,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="7" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="8" t="inlineStr">
         <is>
@@ -6510,7 +6461,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -6593,10 +6544,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
@@ -6650,10 +6600,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="8" t="inlineStr">
         <is>
@@ -6699,10 +6648,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="8" t="inlineStr">
         <is>
@@ -6744,10 +6692,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
@@ -6789,10 +6736,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="8" t="inlineStr">
         <is>
@@ -6834,10 +6780,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="8" t="inlineStr">
         <is>
@@ -6879,10 +6824,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="8" t="inlineStr">
         <is>
@@ -6924,10 +6868,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
@@ -6969,10 +6912,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
@@ -7014,10 +6956,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="8" t="inlineStr">
         <is>
@@ -7059,10 +7000,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="8" t="inlineStr">
         <is>
@@ -7104,10 +7044,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="8" t="inlineStr">
         <is>
@@ -7149,10 +7088,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="8" t="inlineStr">
         <is>
@@ -7194,10 +7132,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="8" t="inlineStr">
         <is>
@@ -7239,10 +7176,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="8" t="inlineStr">
         <is>
@@ -7284,10 +7220,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="8" t="inlineStr">
         <is>
@@ -7341,10 +7276,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="8" t="inlineStr">
         <is>
@@ -7386,7 +7320,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="7" t="n"/>
+      <c r="D19" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="16" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
@@ -7423,10 +7360,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
@@ -7468,10 +7404,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="18" t="inlineStr">
         <is>
@@ -7513,10 +7448,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="7" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
@@ -7558,10 +7492,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="7" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
@@ -7603,10 +7536,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
@@ -7648,10 +7580,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
@@ -7693,10 +7624,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="7" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
@@ -7738,10 +7668,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
@@ -7783,10 +7712,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="7" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
@@ -7828,10 +7756,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
@@ -7873,10 +7800,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="7" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
@@ -7918,10 +7844,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="7" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
@@ -7963,10 +7888,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="7" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
@@ -8008,10 +7932,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="7" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
@@ -8053,10 +7976,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="7" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
@@ -8098,10 +8020,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
@@ -8151,10 +8072,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="7" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="8" t="inlineStr">
         <is>
@@ -8196,10 +8116,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="7" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="18" t="inlineStr">
         <is>
@@ -8245,10 +8164,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="7" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="8" t="inlineStr">
         <is>
@@ -8290,10 +8208,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="7" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="8" t="inlineStr">
         <is>
@@ -8335,10 +8252,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="7" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="8" t="inlineStr">
         <is>
@@ -8380,10 +8296,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="7" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="8" t="inlineStr">
         <is>
@@ -8425,10 +8340,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="7" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="8" t="inlineStr">
         <is>
@@ -8470,10 +8384,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="7" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="8" t="inlineStr">
         <is>
@@ -8515,10 +8428,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="7" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="8" t="inlineStr">
         <is>
@@ -8560,10 +8472,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="7" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="8" t="inlineStr">
         <is>
@@ -8605,10 +8516,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="7" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="8" t="inlineStr">
         <is>
@@ -8650,10 +8560,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="7" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="8" t="inlineStr">
         <is>
@@ -8699,10 +8608,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="7" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="18" t="inlineStr">
         <is>
@@ -8744,10 +8652,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="7" t="inlineStr">
-        <is>
-          <t>Ana Paula Cigolini</t>
-        </is>
+      <c r="D49" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="8" t="inlineStr">
         <is>
@@ -8789,10 +8696,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="7" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="8" t="inlineStr">
         <is>
@@ -8834,10 +8740,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="7" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="8" t="inlineStr">
         <is>
@@ -8879,10 +8784,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="7" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="8" t="inlineStr">
         <is>
@@ -8924,10 +8828,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="7" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="8" t="inlineStr">
         <is>
@@ -8969,7 +8872,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="7" t="n"/>
+      <c r="D54" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="16" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
@@ -9006,10 +8912,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="7" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="8" t="inlineStr">
         <is>
@@ -9059,10 +8964,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="8" t="inlineStr">
         <is>
@@ -9104,10 +9008,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="7" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="8" t="inlineStr">
         <is>
@@ -9161,10 +9064,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="7" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="7">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="8" t="inlineStr">
         <is>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -34,18 +34,18 @@
     </font>
     <font>
       <name val="Aptos Narrow"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
       <b val="1"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="12"/>
     </font>
     <font>
@@ -73,8 +73,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3172C4"/>
-        <bgColor rgb="FF0066CC"/>
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -165,16 +165,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -702,13 +716,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="12.85" customWidth="1" min="2" max="2"/>
-    <col width="12.28" customWidth="1" min="3" max="3"/>
-    <col width="15.14" customWidth="1" min="4" max="4"/>
+    <col width="12.85546875" customWidth="1" min="2" max="2"/>
+    <col width="12.28515625" customWidth="1" min="3" max="3"/>
+    <col width="15.140625" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="15.14" customWidth="1" min="6" max="6"/>
-    <col width="11.85" customWidth="1" min="7" max="7"/>
-    <col width="10.85" customWidth="1" min="8" max="8"/>
+    <col width="15.140625" customWidth="1" min="6" max="6"/>
+    <col width="11.85546875" customWidth="1" min="7" max="7"/>
+    <col width="10.85546875" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -64,7 +64,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
@@ -145,14 +145,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="00FF6400"/>
+        <bgColor rgb="00FF6400"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00A020F0"/>
         <bgColor rgb="00A020F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808080"/>
+        <bgColor rgb="00808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -208,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -262,6 +268,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,7 +939,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="48" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -1822,10 +1831,14 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="7" t="n"/>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>Tássia Castelli</t>
+        </is>
+      </c>
       <c r="E19" s="16" t="inlineStr">
         <is>
-          <t>Sem Técnico</t>
+          <t>Atrasado</t>
         </is>
       </c>
       <c r="F19" s="7" t="n"/>
@@ -2507,7 +2520,7 @@
       </c>
       <c r="D34" s="7" t="inlineStr">
         <is>
-          <t>Rayra Emanuelly da Costa</t>
+          <t>Leticia Framesche</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -2781,7 +2794,7 @@
       </c>
       <c r="D40" s="7" t="inlineStr">
         <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
+          <t>Gabriela Sartorelli Margonar</t>
         </is>
       </c>
       <c r="E40" s="8" t="inlineStr">
@@ -3434,7 +3447,7 @@
         </is>
       </c>
       <c r="D54" s="7" t="n"/>
-      <c r="E54" s="16" t="inlineStr">
+      <c r="E54" s="19" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -3570,7 +3583,7 @@
       </c>
       <c r="D57" s="7" t="inlineStr">
         <is>
-          <t>Liandra Sartor da Silva</t>
+          <t>Fernanda Naiara Voinarski</t>
         </is>
       </c>
       <c r="E57" s="8" t="inlineStr">
@@ -4588,7 +4601,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="16" t="inlineStr">
+      <c r="E19" s="19" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -6176,7 +6189,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="16" t="inlineStr">
+      <c r="E54" s="19" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -7340,7 +7353,7 @@
       </c>
       <c r="E19" s="16" t="inlineStr">
         <is>
-          <t>Sem Técnico</t>
+          <t>Atrasado</t>
         </is>
       </c>
       <c r="F19" s="7" t="n"/>
@@ -8890,7 +8903,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="16" t="inlineStr">
+      <c r="E54" s="19" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -8147,14 +8147,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="18" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F37" s="7" t="inlineStr">
         <is>
-          <t>10/02/2025, 05/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="G37" s="9" t="inlineStr">
@@ -8170,10 +8170,14 @@
       </c>
       <c r="J37" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K37" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K37" s="7" t="inlineStr">
+        <is>
+          <t>Deletado o ID 83</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="12" t="inlineStr">

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -2768,10 +2768,14 @@
           <t>Dois envios (manter ID 117)</t>
         </is>
       </c>
-      <c r="I39" s="7" t="n"/>
+      <c r="I39" s="7" t="inlineStr">
+        <is>
+          <t>Remover ID109</t>
+        </is>
+      </c>
       <c r="J39" s="7" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Em Análise</t>
         </is>
       </c>
       <c r="K39" s="7" t="n"/>
@@ -6337,19 +6341,19 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="8" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E57" s="18" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F57" s="7" t="inlineStr">
         <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-      <c r="G57" s="9" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>24/07/2025, 20/03/2025</t>
+        </is>
+      </c>
+      <c r="G57" s="17" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H57" s="7" t="n"/>
@@ -9043,19 +9047,19 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="8" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E57" s="18" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F57" s="7" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
-        </is>
-      </c>
-      <c r="G57" s="9" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>21/03/2025, 24/07/2025</t>
+        </is>
+      </c>
+      <c r="G57" s="17" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H57" s="7" t="inlineStr">

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -4699,9 +4699,9 @@
           <t>26/03/2025, 26/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="G21" s="17" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H21" s="7" t="n"/>
@@ -4743,9 +4743,9 @@
           <t>07/02/2025, 24/02/2025, 12/03/2025</t>
         </is>
       </c>
-      <c r="G22" s="9" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="G22" s="17" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H22" s="7" t="n"/>
@@ -5395,9 +5395,9 @@
           <t>06/02/2025, 08/04/2025</t>
         </is>
       </c>
-      <c r="G36" s="9" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="G36" s="17" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H36" s="7" t="n"/>
@@ -6027,9 +6027,9 @@
           <t>10/02/2025, 10/04/2025</t>
         </is>
       </c>
-      <c r="G50" s="9" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="G50" s="17" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H50" s="7" t="n"/>
@@ -7449,9 +7449,9 @@
           <t>26/03/2025, 26/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="G21" s="17" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H21" s="7" t="n"/>
@@ -8657,9 +8657,9 @@
           <t>05/02/2025, 07/03/2025</t>
         </is>
       </c>
-      <c r="G48" s="9" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="G48" s="17" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H48" s="7" t="n"/>
@@ -9057,9 +9057,9 @@
           <t>21/03/2025, 24/07/2025</t>
         </is>
       </c>
-      <c r="G57" s="17" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G57" s="9" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H57" s="7" t="inlineStr">

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -4605,9 +4605,9 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="19" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
+      <c r="E19" s="16" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
         </is>
       </c>
       <c r="F19" s="7" t="n"/>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -151,14 +151,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
+        <fgColor rgb="00808080"/>
+        <bgColor rgb="00808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
   </fills>
@@ -941,7 +941,7 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="151" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
+          <t>Claudete Rodrigues Scarpelini</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>Eusebio Lima Deltrejo</t>
+          <t>Fernando Henrique Ferreira</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D36" s="7" t="inlineStr">
         <is>
-          <t>Mariangela Lurdes de Borba</t>
+          <t>Vinicius Patriota dos Santos</t>
         </is>
       </c>
       <c r="E36" s="8" t="inlineStr">
@@ -2748,14 +2748,14 @@
           <t>Aramis Vinicius de Paula Oliveira</t>
         </is>
       </c>
-      <c r="E39" s="18" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F39" s="7" t="inlineStr">
         <is>
-          <t>19/03/2025, 21/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="G39" s="9" t="inlineStr">
@@ -2775,10 +2775,14 @@
       </c>
       <c r="J39" s="7" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K39" s="7" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="inlineStr">
+        <is>
+          <t>Deletado o ID109</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
@@ -3068,7 +3072,7 @@
       </c>
       <c r="D46" s="7" t="inlineStr">
         <is>
-          <t>João Henrique Assunção de Sousa</t>
+          <t>Maysa Fernanda Back</t>
         </is>
       </c>
       <c r="E46" s="8" t="inlineStr">
@@ -3113,7 +3117,7 @@
       </c>
       <c r="D47" s="7" t="inlineStr">
         <is>
-          <t>João Henrique Assunção de Sousa</t>
+          <t>Maysa Fernanda Back</t>
         </is>
       </c>
       <c r="E47" s="8" t="inlineStr">
@@ -3451,7 +3455,7 @@
         </is>
       </c>
       <c r="D54" s="7" t="n"/>
-      <c r="E54" s="19" t="inlineStr">
+      <c r="E54" s="18" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -4689,7 +4693,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="18" t="inlineStr">
+      <c r="E21" s="19" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -4733,7 +4737,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="18" t="inlineStr">
+      <c r="E22" s="19" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -5385,7 +5389,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="18" t="inlineStr">
+      <c r="E36" s="19" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -6017,7 +6021,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="18" t="inlineStr">
+      <c r="E50" s="19" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -6193,7 +6197,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="19" t="inlineStr">
+      <c r="E54" s="18" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -6341,7 +6345,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="18" t="inlineStr">
+      <c r="E57" s="19" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -6351,9 +6355,9 @@
           <t>24/07/2025, 20/03/2025</t>
         </is>
       </c>
-      <c r="G57" s="17" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G57" s="9" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H57" s="7" t="n"/>
@@ -7439,7 +7443,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="18" t="inlineStr">
+      <c r="E21" s="19" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -8647,7 +8651,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="18" t="inlineStr">
+      <c r="E48" s="19" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -8657,9 +8661,9 @@
           <t>05/02/2025, 07/03/2025</t>
         </is>
       </c>
-      <c r="G48" s="17" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G48" s="9" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H48" s="7" t="n"/>
@@ -8911,7 +8915,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="19" t="inlineStr">
+      <c r="E54" s="18" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
@@ -9047,7 +9051,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="18" t="inlineStr">
+      <c r="E57" s="19" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -112,7 +112,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="41">
     <fill>
       <patternFill/>
     </fill>
@@ -253,6 +253,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF66FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFCCFF"/>
         <bgColor rgb="00FFCCFF"/>
       </patternFill>
@@ -295,6 +307,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00006400"/>
         <bgColor rgb="00006400"/>
       </patternFill>
@@ -309,6 +339,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00808080"/>
         <bgColor rgb="00808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA020F0"/>
+        <bgColor rgb="FFA020F0"/>
       </patternFill>
     </fill>
     <fill>
@@ -486,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -595,22 +631,52 @@
     <xf numFmtId="0" fontId="14" fillId="21" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -622,19 +688,16 @@
     <xf numFmtId="0" fontId="7" fillId="28" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10021,7 +10084,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="38" t="inlineStr">
+      <c r="A2" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -10050,7 +10113,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G2" s="49" t="inlineStr">
+      <c r="G2" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10077,7 +10140,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="inlineStr">
+      <c r="A3" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -10106,7 +10169,7 @@
           <t>23/03/2025</t>
         </is>
       </c>
-      <c r="G3" s="41" t="inlineStr">
+      <c r="G3" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10121,7 +10184,7 @@
       <c r="K3" s="39" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -10150,7 +10213,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G4" s="41" t="inlineStr">
+      <c r="G4" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10165,7 +10228,7 @@
       <c r="K4" s="39" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="inlineStr">
+      <c r="A5" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -10194,7 +10257,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G5" s="41" t="inlineStr">
+      <c r="G5" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10221,7 +10284,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="43" t="inlineStr">
+      <c r="A6" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -10250,7 +10313,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10265,7 +10328,7 @@
       <c r="K6" s="39" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="42" t="inlineStr">
+      <c r="A7" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -10294,7 +10357,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G7" s="41" t="inlineStr">
+      <c r="G7" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10309,7 +10372,7 @@
       <c r="K7" s="39" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="44" t="inlineStr">
+      <c r="A8" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -10338,7 +10401,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G8" s="41" t="inlineStr">
+      <c r="G8" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10353,7 +10416,7 @@
       <c r="K8" s="39" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="45" t="inlineStr">
+      <c r="A9" s="57" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -10382,7 +10445,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G9" s="41" t="inlineStr">
+      <c r="G9" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10397,7 +10460,7 @@
       <c r="K9" s="39" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="46" t="inlineStr">
+      <c r="A10" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -10426,7 +10489,7 @@
           <t>18/03/2025</t>
         </is>
       </c>
-      <c r="G10" s="41" t="inlineStr">
+      <c r="G10" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10441,7 +10504,7 @@
       <c r="K10" s="39" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="46" t="inlineStr">
+      <c r="A11" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -10470,7 +10533,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G11" s="41" t="inlineStr">
+      <c r="G11" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10485,7 +10548,7 @@
       <c r="K11" s="39" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="46" t="inlineStr">
+      <c r="A12" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -10514,7 +10577,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G12" s="41" t="inlineStr">
+      <c r="G12" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10529,7 +10592,7 @@
       <c r="K12" s="39" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="46" t="inlineStr">
+      <c r="A13" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -10558,7 +10621,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G13" s="41" t="inlineStr">
+      <c r="G13" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10573,7 +10636,7 @@
       <c r="K13" s="39" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="46" t="inlineStr">
+      <c r="A14" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -10602,7 +10665,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G14" s="41" t="inlineStr">
+      <c r="G14" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10617,7 +10680,7 @@
       <c r="K14" s="39" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="46" t="inlineStr">
+      <c r="A15" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -10646,7 +10709,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G15" s="41" t="inlineStr">
+      <c r="G15" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10661,7 +10724,7 @@
       <c r="K15" s="39" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="43" t="inlineStr">
+      <c r="A16" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -10690,7 +10753,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G16" s="41" t="inlineStr">
+      <c r="G16" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10705,7 +10768,7 @@
       <c r="K16" s="39" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="46" t="inlineStr">
+      <c r="A17" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -10734,7 +10797,7 @@
           <t>25/03/2025</t>
         </is>
       </c>
-      <c r="G17" s="41" t="inlineStr">
+      <c r="G17" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10749,7 +10812,7 @@
       <c r="K17" s="39" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="38" t="inlineStr">
+      <c r="A18" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -10778,7 +10841,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G18" s="41" t="inlineStr">
+      <c r="G18" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10797,7 +10860,7 @@
       <c r="K18" s="39" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="47" t="inlineStr">
+      <c r="A19" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -10822,7 +10885,7 @@
         </is>
       </c>
       <c r="F19" s="39" t="n"/>
-      <c r="G19" s="49" t="inlineStr">
+      <c r="G19" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10837,7 +10900,7 @@
       <c r="K19" s="39" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="38" t="inlineStr">
+      <c r="A20" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -10866,7 +10929,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G20" s="41" t="inlineStr">
+      <c r="G20" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -10881,7 +10944,7 @@
       <c r="K20" s="39" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="43" t="inlineStr">
+      <c r="A21" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -10900,7 +10963,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="51" t="inlineStr">
+      <c r="E21" s="60" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -10910,7 +10973,7 @@
           <t>26/03/2025, 26/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="49" t="inlineStr">
+      <c r="G21" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10925,7 +10988,7 @@
       <c r="K21" s="39" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="43" t="inlineStr">
+      <c r="A22" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -10944,7 +11007,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="51" t="inlineStr">
+      <c r="E22" s="60" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -10954,7 +11017,7 @@
           <t>07/02/2025, 24/02/2025, 12/03/2025</t>
         </is>
       </c>
-      <c r="G22" s="49" t="inlineStr">
+      <c r="G22" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10969,7 +11032,7 @@
       <c r="K22" s="39" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="43" t="inlineStr">
+      <c r="A23" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -10998,7 +11061,7 @@
           <t>21/02/2025</t>
         </is>
       </c>
-      <c r="G23" s="41" t="inlineStr">
+      <c r="G23" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11013,7 +11076,7 @@
       <c r="K23" s="39" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="43" t="inlineStr">
+      <c r="A24" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -11042,7 +11105,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G24" s="41" t="inlineStr">
+      <c r="G24" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11057,7 +11120,7 @@
       <c r="K24" s="39" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="47" t="inlineStr">
+      <c r="A25" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -11086,7 +11149,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G25" s="41" t="inlineStr">
+      <c r="G25" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11113,7 +11176,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="44" t="inlineStr">
+      <c r="A26" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -11142,7 +11205,7 @@
           <t>11/02/2025</t>
         </is>
       </c>
-      <c r="G26" s="41" t="inlineStr">
+      <c r="G26" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11157,7 +11220,7 @@
       <c r="K26" s="39" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="44" t="inlineStr">
+      <c r="A27" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -11186,7 +11249,7 @@
           <t>18/03/2025</t>
         </is>
       </c>
-      <c r="G27" s="41" t="inlineStr">
+      <c r="G27" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11201,7 +11264,7 @@
       <c r="K27" s="39" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="44" t="inlineStr">
+      <c r="A28" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -11230,7 +11293,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G28" s="41" t="inlineStr">
+      <c r="G28" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11257,7 +11320,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42" t="inlineStr">
+      <c r="A29" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -11286,7 +11349,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G29" s="41" t="inlineStr">
+      <c r="G29" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11301,7 +11364,7 @@
       <c r="K29" s="39" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="42" t="inlineStr">
+      <c r="A30" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -11330,7 +11393,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G30" s="41" t="inlineStr">
+      <c r="G30" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11345,7 +11408,7 @@
       <c r="K30" s="39" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="46" t="inlineStr">
+      <c r="A31" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -11374,7 +11437,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G31" s="41" t="inlineStr">
+      <c r="G31" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11389,7 +11452,7 @@
       <c r="K31" s="39" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="inlineStr">
+      <c r="A32" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -11418,7 +11481,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G32" s="41" t="inlineStr">
+      <c r="G32" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11433,7 +11496,7 @@
       <c r="K32" s="39" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="42" t="inlineStr">
+      <c r="A33" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -11462,7 +11525,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G33" s="41" t="inlineStr">
+      <c r="G33" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11477,7 +11540,7 @@
       <c r="K33" s="39" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="42" t="inlineStr">
+      <c r="A34" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -11506,7 +11569,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G34" s="41" t="inlineStr">
+      <c r="G34" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11533,7 +11596,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="43" t="inlineStr">
+      <c r="A35" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -11562,7 +11625,7 @@
           <t>25/03/2025</t>
         </is>
       </c>
-      <c r="G35" s="41" t="inlineStr">
+      <c r="G35" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11577,7 +11640,7 @@
       <c r="K35" s="39" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="45" t="inlineStr">
+      <c r="A36" s="57" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -11596,7 +11659,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="51" t="inlineStr">
+      <c r="E36" s="60" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -11606,7 +11669,7 @@
           <t>06/02/2025, 08/04/2025</t>
         </is>
       </c>
-      <c r="G36" s="49" t="inlineStr">
+      <c r="G36" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11621,7 +11684,7 @@
       <c r="K36" s="39" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="45" t="inlineStr">
+      <c r="A37" s="57" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -11650,7 +11713,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G37" s="41" t="inlineStr">
+      <c r="G37" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11665,7 +11728,7 @@
       <c r="K37" s="39" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="44" t="inlineStr">
+      <c r="A38" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -11694,7 +11757,7 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G38" s="41" t="inlineStr">
+      <c r="G38" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11709,7 +11772,7 @@
       <c r="K38" s="39" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="47" t="inlineStr">
+      <c r="A39" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -11738,7 +11801,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G39" s="41" t="inlineStr">
+      <c r="G39" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11753,7 +11816,7 @@
       <c r="K39" s="39" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="38" t="inlineStr">
+      <c r="A40" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -11782,7 +11845,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G40" s="41" t="inlineStr">
+      <c r="G40" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11801,7 +11864,7 @@
       <c r="K40" s="39" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="42" t="inlineStr">
+      <c r="A41" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -11830,7 +11893,7 @@
           <t>06/05/2025</t>
         </is>
       </c>
-      <c r="G41" s="41" t="inlineStr">
+      <c r="G41" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11857,7 +11920,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="47" t="inlineStr">
+      <c r="A42" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -11886,7 +11949,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G42" s="41" t="inlineStr">
+      <c r="G42" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11901,7 +11964,7 @@
       <c r="K42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="43" t="inlineStr">
+      <c r="A43" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -11930,7 +11993,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G43" s="41" t="inlineStr">
+      <c r="G43" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11945,7 +12008,7 @@
       <c r="K43" s="39" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="47" t="inlineStr">
+      <c r="A44" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -11974,7 +12037,7 @@
           <t>04/02/2025</t>
         </is>
       </c>
-      <c r="G44" s="41" t="inlineStr">
+      <c r="G44" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11989,7 +12052,7 @@
       <c r="K44" s="39" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="44" t="inlineStr">
+      <c r="A45" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -12018,7 +12081,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G45" s="41" t="inlineStr">
+      <c r="G45" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12033,7 +12096,7 @@
       <c r="K45" s="39" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="46" t="inlineStr">
+      <c r="A46" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -12062,7 +12125,7 @@
           <t>03/04/2025</t>
         </is>
       </c>
-      <c r="G46" s="41" t="inlineStr">
+      <c r="G46" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12077,7 +12140,7 @@
       <c r="K46" s="39" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="46" t="inlineStr">
+      <c r="A47" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -12106,7 +12169,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G47" s="41" t="inlineStr">
+      <c r="G47" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12121,7 +12184,7 @@
       <c r="K47" s="39" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="46" t="inlineStr">
+      <c r="A48" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -12150,7 +12213,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G48" s="41" t="inlineStr">
+      <c r="G48" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12165,7 +12228,7 @@
       <c r="K48" s="39" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="43" t="inlineStr">
+      <c r="A49" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -12194,7 +12257,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G49" s="41" t="inlineStr">
+      <c r="G49" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12209,7 +12272,7 @@
       <c r="K49" s="39" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="47" t="inlineStr">
+      <c r="A50" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -12228,7 +12291,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="51" t="inlineStr">
+      <c r="E50" s="60" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -12238,7 +12301,7 @@
           <t>10/02/2025, 10/04/2025</t>
         </is>
       </c>
-      <c r="G50" s="49" t="inlineStr">
+      <c r="G50" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12253,7 +12316,7 @@
       <c r="K50" s="39" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="44" t="inlineStr">
+      <c r="A51" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -12282,7 +12345,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G51" s="41" t="inlineStr">
+      <c r="G51" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12297,7 +12360,7 @@
       <c r="K51" s="39" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="38" t="inlineStr">
+      <c r="A52" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -12326,7 +12389,7 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="49" t="inlineStr">
+      <c r="G52" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12341,7 +12404,7 @@
       <c r="K52" s="39" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="44" t="inlineStr">
+      <c r="A53" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -12370,7 +12433,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G53" s="41" t="inlineStr">
+      <c r="G53" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12385,7 +12448,7 @@
       <c r="K53" s="39" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="47" t="inlineStr">
+      <c r="A54" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -12410,7 +12473,7 @@
         </is>
       </c>
       <c r="F54" s="39" t="n"/>
-      <c r="G54" s="49" t="inlineStr">
+      <c r="G54" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12425,7 +12488,7 @@
       <c r="K54" s="39" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="38" t="inlineStr">
+      <c r="A55" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -12454,7 +12517,7 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G55" s="41" t="inlineStr">
+      <c r="G55" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12477,7 +12540,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="42" t="inlineStr">
+      <c r="A56" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -12506,7 +12569,7 @@
           <t>05/06/2025</t>
         </is>
       </c>
-      <c r="G56" s="41" t="inlineStr">
+      <c r="G56" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12533,7 +12596,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="46" t="inlineStr">
+      <c r="A57" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -12552,7 +12615,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="51" t="inlineStr">
+      <c r="E57" s="60" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -12562,7 +12625,7 @@
           <t>24/07/2025, 20/03/2025</t>
         </is>
       </c>
-      <c r="G57" s="41" t="inlineStr">
+      <c r="G57" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12577,7 +12640,7 @@
       <c r="K57" s="39" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="46" t="inlineStr">
+      <c r="A58" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -12606,7 +12669,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G58" s="41" t="inlineStr">
+      <c r="G58" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12771,7 +12834,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="38" t="inlineStr">
+      <c r="A2" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -12800,7 +12863,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G2" s="41" t="inlineStr">
+      <c r="G2" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12827,7 +12890,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="inlineStr">
+      <c r="A3" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -12856,7 +12919,7 @@
           <t>23/03/2025</t>
         </is>
       </c>
-      <c r="G3" s="41" t="inlineStr">
+      <c r="G3" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12875,7 +12938,7 @@
       <c r="K3" s="39" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -12904,7 +12967,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G4" s="41" t="inlineStr">
+      <c r="G4" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12919,7 +12982,7 @@
       <c r="K4" s="39" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="inlineStr">
+      <c r="A5" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -12948,7 +13011,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G5" s="41" t="inlineStr">
+      <c r="G5" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12963,7 +13026,7 @@
       <c r="K5" s="39" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="43" t="inlineStr">
+      <c r="A6" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -12992,7 +13055,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13007,7 +13070,7 @@
       <c r="K6" s="39" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="42" t="inlineStr">
+      <c r="A7" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -13036,7 +13099,7 @@
           <t>26/03/2025</t>
         </is>
       </c>
-      <c r="G7" s="41" t="inlineStr">
+      <c r="G7" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13051,7 +13114,7 @@
       <c r="K7" s="39" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="44" t="inlineStr">
+      <c r="A8" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -13080,7 +13143,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G8" s="41" t="inlineStr">
+      <c r="G8" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13095,7 +13158,7 @@
       <c r="K8" s="39" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="45" t="inlineStr">
+      <c r="A9" s="57" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -13124,7 +13187,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G9" s="41" t="inlineStr">
+      <c r="G9" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13139,7 +13202,7 @@
       <c r="K9" s="39" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="46" t="inlineStr">
+      <c r="A10" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -13168,7 +13231,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G10" s="41" t="inlineStr">
+      <c r="G10" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13183,7 +13246,7 @@
       <c r="K10" s="39" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="46" t="inlineStr">
+      <c r="A11" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -13212,7 +13275,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G11" s="41" t="inlineStr">
+      <c r="G11" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13227,7 +13290,7 @@
       <c r="K11" s="39" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="46" t="inlineStr">
+      <c r="A12" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -13256,7 +13319,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G12" s="41" t="inlineStr">
+      <c r="G12" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13271,7 +13334,7 @@
       <c r="K12" s="39" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="46" t="inlineStr">
+      <c r="A13" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -13300,7 +13363,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G13" s="41" t="inlineStr">
+      <c r="G13" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13315,7 +13378,7 @@
       <c r="K13" s="39" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="46" t="inlineStr">
+      <c r="A14" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -13344,7 +13407,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G14" s="41" t="inlineStr">
+      <c r="G14" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13359,7 +13422,7 @@
       <c r="K14" s="39" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="46" t="inlineStr">
+      <c r="A15" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -13388,7 +13451,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G15" s="41" t="inlineStr">
+      <c r="G15" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13403,7 +13466,7 @@
       <c r="K15" s="39" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="43" t="inlineStr">
+      <c r="A16" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -13432,7 +13495,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G16" s="41" t="inlineStr">
+      <c r="G16" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13447,7 +13510,7 @@
       <c r="K16" s="39" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="46" t="inlineStr">
+      <c r="A17" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -13476,7 +13539,7 @@
           <t>26/03/2025</t>
         </is>
       </c>
-      <c r="G17" s="41" t="inlineStr">
+      <c r="G17" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13503,7 +13566,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="38" t="inlineStr">
+      <c r="A18" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -13532,7 +13595,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G18" s="41" t="inlineStr">
+      <c r="G18" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13547,7 +13610,7 @@
       <c r="K18" s="39" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="47" t="inlineStr">
+      <c r="A19" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -13572,7 +13635,7 @@
         </is>
       </c>
       <c r="F19" s="39" t="n"/>
-      <c r="G19" s="49" t="inlineStr">
+      <c r="G19" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13587,7 +13650,7 @@
       <c r="K19" s="39" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="38" t="inlineStr">
+      <c r="A20" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -13616,7 +13679,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G20" s="41" t="inlineStr">
+      <c r="G20" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13631,7 +13694,7 @@
       <c r="K20" s="39" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="43" t="inlineStr">
+      <c r="A21" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -13650,7 +13713,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="51" t="inlineStr">
+      <c r="E21" s="60" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -13660,7 +13723,7 @@
           <t>26/03/2025, 26/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="49" t="inlineStr">
+      <c r="G21" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13675,7 +13738,7 @@
       <c r="K21" s="39" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="43" t="inlineStr">
+      <c r="A22" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -13704,7 +13767,7 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G22" s="41" t="inlineStr">
+      <c r="G22" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13719,7 +13782,7 @@
       <c r="K22" s="39" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="43" t="inlineStr">
+      <c r="A23" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -13748,7 +13811,7 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G23" s="41" t="inlineStr">
+      <c r="G23" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13763,7 +13826,7 @@
       <c r="K23" s="39" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="43" t="inlineStr">
+      <c r="A24" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -13792,7 +13855,7 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G24" s="41" t="inlineStr">
+      <c r="G24" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13807,7 +13870,7 @@
       <c r="K24" s="39" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="47" t="inlineStr">
+      <c r="A25" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -13836,7 +13899,7 @@
           <t>26/03/2025</t>
         </is>
       </c>
-      <c r="G25" s="41" t="inlineStr">
+      <c r="G25" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13851,7 +13914,7 @@
       <c r="K25" s="39" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="44" t="inlineStr">
+      <c r="A26" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -13880,7 +13943,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G26" s="41" t="inlineStr">
+      <c r="G26" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13895,7 +13958,7 @@
       <c r="K26" s="39" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="44" t="inlineStr">
+      <c r="A27" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -13924,7 +13987,7 @@
           <t>18/03/2025</t>
         </is>
       </c>
-      <c r="G27" s="41" t="inlineStr">
+      <c r="G27" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13939,7 +14002,7 @@
       <c r="K27" s="39" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="44" t="inlineStr">
+      <c r="A28" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -13968,7 +14031,7 @@
           <t>11/02/2025</t>
         </is>
       </c>
-      <c r="G28" s="41" t="inlineStr">
+      <c r="G28" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13983,7 +14046,7 @@
       <c r="K28" s="39" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="42" t="inlineStr">
+      <c r="A29" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -14012,7 +14075,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G29" s="41" t="inlineStr">
+      <c r="G29" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14027,7 +14090,7 @@
       <c r="K29" s="39" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="42" t="inlineStr">
+      <c r="A30" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -14056,7 +14119,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G30" s="41" t="inlineStr">
+      <c r="G30" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14071,7 +14134,7 @@
       <c r="K30" s="39" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="46" t="inlineStr">
+      <c r="A31" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14100,7 +14163,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G31" s="41" t="inlineStr">
+      <c r="G31" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14115,7 +14178,7 @@
       <c r="K31" s="39" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="inlineStr">
+      <c r="A32" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -14144,7 +14207,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G32" s="41" t="inlineStr">
+      <c r="G32" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14159,7 +14222,7 @@
       <c r="K32" s="39" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="42" t="inlineStr">
+      <c r="A33" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -14188,7 +14251,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G33" s="41" t="inlineStr">
+      <c r="G33" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14203,7 +14266,7 @@
       <c r="K33" s="39" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="42" t="inlineStr">
+      <c r="A34" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -14232,7 +14295,7 @@
           <t>04/02/2025</t>
         </is>
       </c>
-      <c r="G34" s="41" t="inlineStr">
+      <c r="G34" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14247,7 +14310,7 @@
       <c r="K34" s="39" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="43" t="inlineStr">
+      <c r="A35" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -14276,7 +14339,7 @@
           <t>25/03/2025</t>
         </is>
       </c>
-      <c r="G35" s="41" t="inlineStr">
+      <c r="G35" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14299,7 +14362,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="45" t="inlineStr">
+      <c r="A36" s="57" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -14328,7 +14391,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G36" s="41" t="inlineStr">
+      <c r="G36" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14343,7 +14406,7 @@
       <c r="K36" s="39" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="45" t="inlineStr">
+      <c r="A37" s="57" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -14372,7 +14435,7 @@
           <t>05/06/2025</t>
         </is>
       </c>
-      <c r="G37" s="41" t="inlineStr">
+      <c r="G37" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14395,7 +14458,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="44" t="inlineStr">
+      <c r="A38" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -14424,7 +14487,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G38" s="41" t="inlineStr">
+      <c r="G38" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14439,7 +14502,7 @@
       <c r="K38" s="39" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="47" t="inlineStr">
+      <c r="A39" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -14468,7 +14531,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G39" s="41" t="inlineStr">
+      <c r="G39" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14483,7 +14546,7 @@
       <c r="K39" s="39" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="38" t="inlineStr">
+      <c r="A40" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -14512,7 +14575,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G40" s="41" t="inlineStr">
+      <c r="G40" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14527,7 +14590,7 @@
       <c r="K40" s="39" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="42" t="inlineStr">
+      <c r="A41" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -14556,7 +14619,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G41" s="41" t="inlineStr">
+      <c r="G41" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14571,7 +14634,7 @@
       <c r="K41" s="39" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="47" t="inlineStr">
+      <c r="A42" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -14600,7 +14663,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G42" s="41" t="inlineStr">
+      <c r="G42" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14615,7 +14678,7 @@
       <c r="K42" s="39" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="43" t="inlineStr">
+      <c r="A43" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -14644,7 +14707,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G43" s="41" t="inlineStr">
+      <c r="G43" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14659,7 +14722,7 @@
       <c r="K43" s="39" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="47" t="inlineStr">
+      <c r="A44" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -14688,7 +14751,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G44" s="41" t="inlineStr">
+      <c r="G44" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14703,7 +14766,7 @@
       <c r="K44" s="39" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="44" t="inlineStr">
+      <c r="A45" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -14732,7 +14795,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G45" s="41" t="inlineStr">
+      <c r="G45" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14747,7 +14810,7 @@
       <c r="K45" s="39" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="46" t="inlineStr">
+      <c r="A46" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14776,7 +14839,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G46" s="41" t="inlineStr">
+      <c r="G46" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14791,7 +14854,7 @@
       <c r="K46" s="39" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="46" t="inlineStr">
+      <c r="A47" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14820,7 +14883,7 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G47" s="41" t="inlineStr">
+      <c r="G47" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14839,7 +14902,7 @@
       <c r="K47" s="39" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="46" t="inlineStr">
+      <c r="A48" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14858,7 +14921,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="51" t="inlineStr">
+      <c r="E48" s="60" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -14868,7 +14931,7 @@
           <t>05/02/2025, 07/03/2025</t>
         </is>
       </c>
-      <c r="G48" s="49" t="inlineStr">
+      <c r="G48" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14883,7 +14946,7 @@
       <c r="K48" s="39" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="43" t="inlineStr">
+      <c r="A49" s="55" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -14912,7 +14975,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G49" s="41" t="inlineStr">
+      <c r="G49" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14927,7 +14990,7 @@
       <c r="K49" s="39" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="47" t="inlineStr">
+      <c r="A50" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -14956,7 +15019,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G50" s="41" t="inlineStr">
+      <c r="G50" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14971,7 +15034,7 @@
       <c r="K50" s="39" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="44" t="inlineStr">
+      <c r="A51" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -15000,7 +15063,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G51" s="41" t="inlineStr">
+      <c r="G51" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15015,7 +15078,7 @@
       <c r="K51" s="39" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="38" t="inlineStr">
+      <c r="A52" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -15044,7 +15107,7 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="41" t="inlineStr">
+      <c r="G52" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15059,7 +15122,7 @@
       <c r="K52" s="39" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="44" t="inlineStr">
+      <c r="A53" s="56" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -15088,7 +15151,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G53" s="41" t="inlineStr">
+      <c r="G53" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15103,7 +15166,7 @@
       <c r="K53" s="39" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="47" t="inlineStr">
+      <c r="A54" s="59" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -15128,7 +15191,7 @@
         </is>
       </c>
       <c r="F54" s="39" t="n"/>
-      <c r="G54" s="49" t="inlineStr">
+      <c r="G54" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15143,7 +15206,7 @@
       <c r="K54" s="39" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="38" t="inlineStr">
+      <c r="A55" s="51" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -15172,7 +15235,7 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G55" s="41" t="inlineStr">
+      <c r="G55" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15195,7 +15258,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="42" t="inlineStr">
+      <c r="A56" s="54" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -15224,7 +15287,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G56" s="41" t="inlineStr">
+      <c r="G56" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15239,7 +15302,7 @@
       <c r="K56" s="39" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="46" t="inlineStr">
+      <c r="A57" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -15258,7 +15321,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="51" t="inlineStr">
+      <c r="E57" s="60" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -15268,7 +15331,7 @@
           <t>21/03/2025, 24/07/2025</t>
         </is>
       </c>
-      <c r="G57" s="49" t="inlineStr">
+      <c r="G57" s="52" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15295,7 +15358,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="46" t="inlineStr">
+      <c r="A58" s="58" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -15324,7 +15387,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G58" s="41" t="inlineStr">
+      <c r="G58" s="53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -318,14 +318,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006400"/>
+        <bgColor rgb="00006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF6400"/>
         <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6666"/>
-        <bgColor rgb="FFFF6666"/>
+        <fgColor rgb="FFA020F0"/>
+        <bgColor rgb="FFA020F0"/>
       </patternFill>
     </fill>
     <fill>
@@ -336,32 +348,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF6400"/>
         <bgColor rgb="00FF6400"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA020F0"/>
-        <bgColor rgb="FFA020F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
+        <fgColor rgb="00808080"/>
+        <bgColor rgb="00808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -533,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -645,52 +645,16 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -710,6 +674,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="41" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8671,7 +8653,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="151" customWidth="1" min="8" max="8"/>
@@ -9567,13 +9549,17 @@
           <t>Tássia Castelli</t>
         </is>
       </c>
-      <c r="E19" s="49" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F19" s="40" t="n"/>
-      <c r="G19" s="50" t="inlineStr">
+      <c r="E19" s="41" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F19" s="40" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="G19" s="49" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10261,7 +10247,7 @@
       </c>
       <c r="F34" s="40" t="inlineStr">
         <is>
-          <t>04/02/2025</t>
+          <t>15/10/2025</t>
         </is>
       </c>
       <c r="G34" s="42" t="inlineStr">
@@ -10269,14 +10255,26 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H34" s="40" t="n"/>
-      <c r="I34" s="40" t="n"/>
+      <c r="H34" s="40" t="inlineStr">
+        <is>
+          <t>excluir ID 60 feito pela Rayra</t>
+        </is>
+      </c>
+      <c r="I34" s="40" t="inlineStr">
+        <is>
+          <t>Remover ID60</t>
+        </is>
+      </c>
       <c r="J34" s="40" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K34" s="40" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K34" s="40" t="inlineStr">
+        <is>
+          <t>Deletado 60</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="44" t="inlineStr">
@@ -11186,13 +11184,17 @@
         </is>
       </c>
       <c r="D54" s="40" t="n"/>
-      <c r="E54" s="51" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F54" s="40" t="n"/>
-      <c r="G54" s="50" t="inlineStr">
+      <c r="E54" s="41" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F54" s="40" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="G54" s="49" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11484,7 +11486,7 @@
     <col width="80" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="31" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11545,7 +11547,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="52" t="inlineStr">
+      <c r="A2" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -11574,7 +11576,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G2" s="53" t="inlineStr">
+      <c r="G2" s="50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11601,7 +11603,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="52" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -11630,7 +11632,7 @@
           <t>23/03/2025</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
+      <c r="G3" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11645,7 +11647,7 @@
       <c r="K3" s="40" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="55" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -11674,7 +11676,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
+      <c r="G4" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11689,7 +11691,7 @@
       <c r="K4" s="40" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="52" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -11718,7 +11720,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G5" s="54" t="inlineStr">
+      <c r="G5" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11745,7 +11747,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="56" t="inlineStr">
+      <c r="A6" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -11774,7 +11776,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G6" s="54" t="inlineStr">
+      <c r="G6" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11789,7 +11791,7 @@
       <c r="K6" s="40" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="55" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -11818,7 +11820,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G7" s="54" t="inlineStr">
+      <c r="G7" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11833,7 +11835,7 @@
       <c r="K7" s="40" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="57" t="inlineStr">
+      <c r="A8" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -11862,7 +11864,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G8" s="54" t="inlineStr">
+      <c r="G8" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11877,7 +11879,7 @@
       <c r="K8" s="40" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="58" t="inlineStr">
+      <c r="A9" s="46" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -11906,7 +11908,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G9" s="54" t="inlineStr">
+      <c r="G9" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11921,7 +11923,7 @@
       <c r="K9" s="40" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="59" t="inlineStr">
+      <c r="A10" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -11950,7 +11952,7 @@
           <t>18/03/2025</t>
         </is>
       </c>
-      <c r="G10" s="54" t="inlineStr">
+      <c r="G10" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -11965,7 +11967,7 @@
       <c r="K10" s="40" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="59" t="inlineStr">
+      <c r="A11" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -11994,7 +11996,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G11" s="54" t="inlineStr">
+      <c r="G11" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12009,7 +12011,7 @@
       <c r="K11" s="40" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="59" t="inlineStr">
+      <c r="A12" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -12038,7 +12040,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G12" s="54" t="inlineStr">
+      <c r="G12" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12053,7 +12055,7 @@
       <c r="K12" s="40" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="59" t="inlineStr">
+      <c r="A13" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -12082,7 +12084,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G13" s="54" t="inlineStr">
+      <c r="G13" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12097,7 +12099,7 @@
       <c r="K13" s="40" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="59" t="inlineStr">
+      <c r="A14" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -12126,7 +12128,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G14" s="54" t="inlineStr">
+      <c r="G14" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12141,7 +12143,7 @@
       <c r="K14" s="40" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="59" t="inlineStr">
+      <c r="A15" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -12170,7 +12172,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G15" s="54" t="inlineStr">
+      <c r="G15" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12185,7 +12187,7 @@
       <c r="K15" s="40" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="56" t="inlineStr">
+      <c r="A16" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -12214,7 +12216,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G16" s="54" t="inlineStr">
+      <c r="G16" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12229,7 +12231,7 @@
       <c r="K16" s="40" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="59" t="inlineStr">
+      <c r="A17" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -12258,7 +12260,7 @@
           <t>25/03/2025</t>
         </is>
       </c>
-      <c r="G17" s="54" t="inlineStr">
+      <c r="G17" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12273,7 +12275,7 @@
       <c r="K17" s="40" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="52" t="inlineStr">
+      <c r="A18" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -12302,7 +12304,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G18" s="54" t="inlineStr">
+      <c r="G18" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12321,7 +12323,7 @@
       <c r="K18" s="40" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="60" t="inlineStr">
+      <c r="A19" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -12340,13 +12342,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="49" t="inlineStr">
+      <c r="E19" s="52" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F19" s="40" t="n"/>
-      <c r="G19" s="53" t="inlineStr">
+      <c r="G19" s="50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12361,7 +12363,7 @@
       <c r="K19" s="40" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="52" t="inlineStr">
+      <c r="A20" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -12390,7 +12392,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G20" s="54" t="inlineStr">
+      <c r="G20" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12405,7 +12407,7 @@
       <c r="K20" s="40" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="56" t="inlineStr">
+      <c r="A21" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -12424,7 +12426,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="61" t="inlineStr">
+      <c r="E21" s="53" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -12434,12 +12436,16 @@
           <t>26/03/2025, 26/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="53" t="inlineStr">
+      <c r="G21" s="50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H21" s="40" t="n"/>
+      <c r="H21" s="40" t="inlineStr">
+        <is>
+          <t>Formulário 2: ID 149</t>
+        </is>
+      </c>
       <c r="I21" s="40" t="n"/>
       <c r="J21" s="40" t="inlineStr">
         <is>
@@ -12449,7 +12455,7 @@
       <c r="K21" s="40" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="56" t="inlineStr">
+      <c r="A22" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -12468,7 +12474,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="61" t="inlineStr">
+      <c r="E22" s="53" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -12478,7 +12484,7 @@
           <t>07/02/2025, 24/02/2025, 12/03/2025</t>
         </is>
       </c>
-      <c r="G22" s="53" t="inlineStr">
+      <c r="G22" s="50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12493,7 +12499,7 @@
       <c r="K22" s="40" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="56" t="inlineStr">
+      <c r="A23" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -12522,7 +12528,7 @@
           <t>21/02/2025</t>
         </is>
       </c>
-      <c r="G23" s="54" t="inlineStr">
+      <c r="G23" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12537,7 +12543,7 @@
       <c r="K23" s="40" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="56" t="inlineStr">
+      <c r="A24" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -12566,7 +12572,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G24" s="54" t="inlineStr">
+      <c r="G24" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12581,7 +12587,7 @@
       <c r="K24" s="40" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="60" t="inlineStr">
+      <c r="A25" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -12610,7 +12616,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G25" s="54" t="inlineStr">
+      <c r="G25" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12637,7 +12643,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="57" t="inlineStr">
+      <c r="A26" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -12666,7 +12672,7 @@
           <t>11/02/2025</t>
         </is>
       </c>
-      <c r="G26" s="54" t="inlineStr">
+      <c r="G26" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12681,7 +12687,7 @@
       <c r="K26" s="40" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="57" t="inlineStr">
+      <c r="A27" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -12710,7 +12716,7 @@
           <t>18/03/2025</t>
         </is>
       </c>
-      <c r="G27" s="54" t="inlineStr">
+      <c r="G27" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12725,7 +12731,7 @@
       <c r="K27" s="40" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="57" t="inlineStr">
+      <c r="A28" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -12754,7 +12760,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G28" s="54" t="inlineStr">
+      <c r="G28" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12781,7 +12787,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="55" t="inlineStr">
+      <c r="A29" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -12810,7 +12816,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G29" s="54" t="inlineStr">
+      <c r="G29" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12825,7 +12831,7 @@
       <c r="K29" s="40" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="55" t="inlineStr">
+      <c r="A30" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -12854,7 +12860,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G30" s="54" t="inlineStr">
+      <c r="G30" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12869,7 +12875,7 @@
       <c r="K30" s="40" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="59" t="inlineStr">
+      <c r="A31" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -12898,7 +12904,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G31" s="54" t="inlineStr">
+      <c r="G31" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12913,7 +12919,7 @@
       <c r="K31" s="40" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="60" t="inlineStr">
+      <c r="A32" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -12942,7 +12948,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G32" s="54" t="inlineStr">
+      <c r="G32" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12957,7 +12963,7 @@
       <c r="K32" s="40" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="55" t="inlineStr">
+      <c r="A33" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -12986,7 +12992,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G33" s="54" t="inlineStr">
+      <c r="G33" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13001,7 +13007,7 @@
       <c r="K33" s="40" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="55" t="inlineStr">
+      <c r="A34" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -13027,22 +13033,22 @@
       </c>
       <c r="F34" s="40" t="inlineStr">
         <is>
-          <t>05/02/2025</t>
-        </is>
-      </c>
-      <c r="G34" s="54" t="inlineStr">
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="G34" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="H34" s="40" t="inlineStr">
         <is>
-          <t>excluir ID 76 manter ID89</t>
+          <t>excluir ID 76 manter ID89, excluir o ID89 feito pela Rayra</t>
         </is>
       </c>
       <c r="I34" s="40" t="inlineStr">
         <is>
-          <t>Remover ID76</t>
+          <t>Remover ID89</t>
         </is>
       </c>
       <c r="J34" s="40" t="inlineStr">
@@ -13052,12 +13058,12 @@
       </c>
       <c r="K34" s="40" t="inlineStr">
         <is>
-          <t>Removido o 76</t>
+          <t>Removido o 76; Deletado 89</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="56" t="inlineStr">
+      <c r="A35" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -13086,7 +13092,7 @@
           <t>25/03/2025</t>
         </is>
       </c>
-      <c r="G35" s="54" t="inlineStr">
+      <c r="G35" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13101,7 +13107,7 @@
       <c r="K35" s="40" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="58" t="inlineStr">
+      <c r="A36" s="46" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -13120,32 +13126,44 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="61" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E36" s="41" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F36" s="40" t="inlineStr">
         <is>
-          <t>06/02/2025, 08/04/2025</t>
-        </is>
-      </c>
-      <c r="G36" s="53" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H36" s="40" t="n"/>
-      <c r="I36" s="40" t="n"/>
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="G36" s="51" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H36" s="40" t="inlineStr">
+        <is>
+          <t>Duplicação do mesmo conteúdo</t>
+        </is>
+      </c>
+      <c r="I36" s="40" t="inlineStr">
+        <is>
+          <t>Remover ID92</t>
+        </is>
+      </c>
       <c r="J36" s="40" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K36" s="40" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K36" s="40" t="inlineStr">
+        <is>
+          <t>Deletado 92</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="58" t="inlineStr">
+      <c r="A37" s="46" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -13174,7 +13192,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G37" s="54" t="inlineStr">
+      <c r="G37" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13189,7 +13207,7 @@
       <c r="K37" s="40" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="57" t="inlineStr">
+      <c r="A38" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -13218,7 +13236,7 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G38" s="54" t="inlineStr">
+      <c r="G38" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13233,7 +13251,7 @@
       <c r="K38" s="40" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="60" t="inlineStr">
+      <c r="A39" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -13252,19 +13270,19 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="41" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E39" s="53" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F39" s="40" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
-        </is>
-      </c>
-      <c r="G39" s="54" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>20/10/2025, 21/03/2025</t>
+        </is>
+      </c>
+      <c r="G39" s="50" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H39" s="40" t="n"/>
@@ -13277,7 +13295,7 @@
       <c r="K39" s="40" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="52" t="inlineStr">
+      <c r="A40" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -13306,7 +13324,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G40" s="54" t="inlineStr">
+      <c r="G40" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13325,7 +13343,7 @@
       <c r="K40" s="40" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="55" t="inlineStr">
+      <c r="A41" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -13354,7 +13372,7 @@
           <t>06/05/2025</t>
         </is>
       </c>
-      <c r="G41" s="54" t="inlineStr">
+      <c r="G41" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13381,7 +13399,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="60" t="inlineStr">
+      <c r="A42" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -13410,7 +13428,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G42" s="54" t="inlineStr">
+      <c r="G42" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13425,7 +13443,7 @@
       <c r="K42" s="40" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="56" t="inlineStr">
+      <c r="A43" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -13454,7 +13472,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G43" s="54" t="inlineStr">
+      <c r="G43" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13469,7 +13487,7 @@
       <c r="K43" s="40" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="60" t="inlineStr">
+      <c r="A44" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -13498,7 +13516,7 @@
           <t>04/02/2025</t>
         </is>
       </c>
-      <c r="G44" s="54" t="inlineStr">
+      <c r="G44" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13513,7 +13531,7 @@
       <c r="K44" s="40" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="57" t="inlineStr">
+      <c r="A45" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -13542,7 +13560,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G45" s="54" t="inlineStr">
+      <c r="G45" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13557,7 +13575,7 @@
       <c r="K45" s="40" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="59" t="inlineStr">
+      <c r="A46" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -13586,7 +13604,7 @@
           <t>03/04/2025</t>
         </is>
       </c>
-      <c r="G46" s="54" t="inlineStr">
+      <c r="G46" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13601,7 +13619,7 @@
       <c r="K46" s="40" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="59" t="inlineStr">
+      <c r="A47" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -13630,7 +13648,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G47" s="54" t="inlineStr">
+      <c r="G47" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13645,7 +13663,7 @@
       <c r="K47" s="40" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="59" t="inlineStr">
+      <c r="A48" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -13674,7 +13692,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G48" s="54" t="inlineStr">
+      <c r="G48" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13689,7 +13707,7 @@
       <c r="K48" s="40" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="56" t="inlineStr">
+      <c r="A49" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -13718,7 +13736,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G49" s="54" t="inlineStr">
+      <c r="G49" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13733,7 +13751,7 @@
       <c r="K49" s="40" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="60" t="inlineStr">
+      <c r="A50" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -13752,32 +13770,44 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="61" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E50" s="41" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F50" s="40" t="inlineStr">
         <is>
-          <t>10/02/2025, 10/04/2025</t>
-        </is>
-      </c>
-      <c r="G50" s="53" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H50" s="40" t="n"/>
-      <c r="I50" s="40" t="n"/>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="G50" s="51" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H50" s="40" t="inlineStr">
+        <is>
+          <t>CNPJ cadastrado errado</t>
+        </is>
+      </c>
+      <c r="I50" s="54" t="inlineStr">
+        <is>
+          <t>Excluir ID103</t>
+        </is>
+      </c>
       <c r="J50" s="40" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K50" s="40" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K50" s="40" t="inlineStr">
+        <is>
+          <t>Deletado 103</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="57" t="inlineStr">
+      <c r="A51" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -13806,7 +13836,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G51" s="54" t="inlineStr">
+      <c r="G51" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13821,7 +13851,7 @@
       <c r="K51" s="40" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="52" t="inlineStr">
+      <c r="A52" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -13850,12 +13880,16 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="53" t="inlineStr">
+      <c r="G52" s="50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H52" s="40" t="n"/>
+      <c r="H52" s="40" t="inlineStr">
+        <is>
+          <t>Ajustar listagem de equipementos existentes</t>
+        </is>
+      </c>
       <c r="I52" s="40" t="n"/>
       <c r="J52" s="40" t="inlineStr">
         <is>
@@ -13865,7 +13899,7 @@
       <c r="K52" s="40" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="57" t="inlineStr">
+      <c r="A53" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -13894,7 +13928,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G53" s="54" t="inlineStr">
+      <c r="G53" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13909,7 +13943,7 @@
       <c r="K53" s="40" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="60" t="inlineStr">
+      <c r="A54" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -13928,13 +13962,13 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="51" t="inlineStr">
+      <c r="E54" s="55" t="inlineStr">
         <is>
           <t>Sem Técnico</t>
         </is>
       </c>
       <c r="F54" s="40" t="n"/>
-      <c r="G54" s="53" t="inlineStr">
+      <c r="G54" s="50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13949,7 +13983,7 @@
       <c r="K54" s="40" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="52" t="inlineStr">
+      <c r="A55" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -13978,7 +14012,7 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G55" s="54" t="inlineStr">
+      <c r="G55" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14001,7 +14035,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="55" t="inlineStr">
+      <c r="A56" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -14030,7 +14064,7 @@
           <t>05/06/2025</t>
         </is>
       </c>
-      <c r="G56" s="54" t="inlineStr">
+      <c r="G56" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14057,7 +14091,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="59" t="inlineStr">
+      <c r="A57" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14076,7 +14110,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="61" t="inlineStr">
+      <c r="E57" s="53" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -14086,7 +14120,7 @@
           <t>24/07/2025, 20/03/2025</t>
         </is>
       </c>
-      <c r="G57" s="54" t="inlineStr">
+      <c r="G57" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14101,7 +14135,7 @@
       <c r="K57" s="40" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="59" t="inlineStr">
+      <c r="A58" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14130,7 +14164,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G58" s="54" t="inlineStr">
+      <c r="G58" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14228,7 +14262,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="107" customWidth="1" min="8" max="8"/>
@@ -14295,7 +14329,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="52" t="inlineStr">
+      <c r="A2" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -14324,7 +14358,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G2" s="54" t="inlineStr">
+      <c r="G2" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14351,7 +14385,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="52" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -14380,7 +14414,7 @@
           <t>23/03/2025</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
+      <c r="G3" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14399,7 +14433,7 @@
       <c r="K3" s="40" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="55" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -14428,7 +14462,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
+      <c r="G4" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14443,7 +14477,7 @@
       <c r="K4" s="40" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="52" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -14472,7 +14506,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G5" s="54" t="inlineStr">
+      <c r="G5" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14487,7 +14521,7 @@
       <c r="K5" s="40" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="56" t="inlineStr">
+      <c r="A6" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -14516,7 +14550,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G6" s="54" t="inlineStr">
+      <c r="G6" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14531,7 +14565,7 @@
       <c r="K6" s="40" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="55" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -14560,7 +14594,7 @@
           <t>26/03/2025</t>
         </is>
       </c>
-      <c r="G7" s="54" t="inlineStr">
+      <c r="G7" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14575,7 +14609,7 @@
       <c r="K7" s="40" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="57" t="inlineStr">
+      <c r="A8" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -14604,7 +14638,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G8" s="54" t="inlineStr">
+      <c r="G8" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14619,7 +14653,7 @@
       <c r="K8" s="40" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="58" t="inlineStr">
+      <c r="A9" s="46" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -14648,7 +14682,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G9" s="54" t="inlineStr">
+      <c r="G9" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14663,7 +14697,7 @@
       <c r="K9" s="40" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="59" t="inlineStr">
+      <c r="A10" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14692,7 +14726,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G10" s="54" t="inlineStr">
+      <c r="G10" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14707,7 +14741,7 @@
       <c r="K10" s="40" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="59" t="inlineStr">
+      <c r="A11" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14736,7 +14770,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G11" s="54" t="inlineStr">
+      <c r="G11" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14751,7 +14785,7 @@
       <c r="K11" s="40" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="59" t="inlineStr">
+      <c r="A12" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14780,7 +14814,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G12" s="54" t="inlineStr">
+      <c r="G12" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14795,7 +14829,7 @@
       <c r="K12" s="40" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="59" t="inlineStr">
+      <c r="A13" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14824,7 +14858,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G13" s="54" t="inlineStr">
+      <c r="G13" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14839,7 +14873,7 @@
       <c r="K13" s="40" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="59" t="inlineStr">
+      <c r="A14" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14868,7 +14902,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G14" s="54" t="inlineStr">
+      <c r="G14" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14883,7 +14917,7 @@
       <c r="K14" s="40" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="59" t="inlineStr">
+      <c r="A15" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -14912,7 +14946,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G15" s="54" t="inlineStr">
+      <c r="G15" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14927,7 +14961,7 @@
       <c r="K15" s="40" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="56" t="inlineStr">
+      <c r="A16" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -14956,7 +14990,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G16" s="54" t="inlineStr">
+      <c r="G16" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14971,7 +15005,7 @@
       <c r="K16" s="40" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="59" t="inlineStr">
+      <c r="A17" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -15000,7 +15034,7 @@
           <t>26/03/2025</t>
         </is>
       </c>
-      <c r="G17" s="54" t="inlineStr">
+      <c r="G17" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15027,7 +15061,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="52" t="inlineStr">
+      <c r="A18" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -15056,7 +15090,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G18" s="54" t="inlineStr">
+      <c r="G18" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15071,7 +15105,7 @@
       <c r="K18" s="40" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="60" t="inlineStr">
+      <c r="A19" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -15090,13 +15124,17 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="49" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F19" s="40" t="n"/>
-      <c r="G19" s="53" t="inlineStr">
+      <c r="E19" s="41" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F19" s="40" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="G19" s="50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15111,7 +15149,7 @@
       <c r="K19" s="40" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="52" t="inlineStr">
+      <c r="A20" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -15140,7 +15178,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G20" s="54" t="inlineStr">
+      <c r="G20" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15155,7 +15193,7 @@
       <c r="K20" s="40" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="56" t="inlineStr">
+      <c r="A21" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -15174,7 +15212,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="61" t="inlineStr">
+      <c r="E21" s="53" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -15184,12 +15222,16 @@
           <t>26/03/2025, 26/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="53" t="inlineStr">
+      <c r="G21" s="50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H21" s="40" t="n"/>
+      <c r="H21" s="40" t="inlineStr">
+        <is>
+          <t>Formulário 3: ID 124</t>
+        </is>
+      </c>
       <c r="I21" s="40" t="n"/>
       <c r="J21" s="40" t="inlineStr">
         <is>
@@ -15199,7 +15241,7 @@
       <c r="K21" s="40" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="56" t="inlineStr">
+      <c r="A22" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -15228,7 +15270,7 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G22" s="54" t="inlineStr">
+      <c r="G22" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15243,7 +15285,7 @@
       <c r="K22" s="40" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="56" t="inlineStr">
+      <c r="A23" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -15272,7 +15314,7 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G23" s="54" t="inlineStr">
+      <c r="G23" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15287,7 +15329,7 @@
       <c r="K23" s="40" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="56" t="inlineStr">
+      <c r="A24" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -15316,7 +15358,7 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G24" s="54" t="inlineStr">
+      <c r="G24" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15331,7 +15373,7 @@
       <c r="K24" s="40" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="60" t="inlineStr">
+      <c r="A25" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -15360,7 +15402,7 @@
           <t>26/03/2025</t>
         </is>
       </c>
-      <c r="G25" s="54" t="inlineStr">
+      <c r="G25" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15375,7 +15417,7 @@
       <c r="K25" s="40" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="57" t="inlineStr">
+      <c r="A26" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -15404,7 +15446,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G26" s="54" t="inlineStr">
+      <c r="G26" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15419,7 +15461,7 @@
       <c r="K26" s="40" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="57" t="inlineStr">
+      <c r="A27" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -15448,7 +15490,7 @@
           <t>18/03/2025</t>
         </is>
       </c>
-      <c r="G27" s="54" t="inlineStr">
+      <c r="G27" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15463,7 +15505,7 @@
       <c r="K27" s="40" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="57" t="inlineStr">
+      <c r="A28" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -15492,7 +15534,7 @@
           <t>11/02/2025</t>
         </is>
       </c>
-      <c r="G28" s="54" t="inlineStr">
+      <c r="G28" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15507,7 +15549,7 @@
       <c r="K28" s="40" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="55" t="inlineStr">
+      <c r="A29" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -15536,7 +15578,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G29" s="54" t="inlineStr">
+      <c r="G29" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15551,7 +15593,7 @@
       <c r="K29" s="40" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="55" t="inlineStr">
+      <c r="A30" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -15580,7 +15622,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G30" s="54" t="inlineStr">
+      <c r="G30" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15595,7 +15637,7 @@
       <c r="K30" s="40" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="59" t="inlineStr">
+      <c r="A31" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -15624,7 +15666,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G31" s="54" t="inlineStr">
+      <c r="G31" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15639,7 +15681,7 @@
       <c r="K31" s="40" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="60" t="inlineStr">
+      <c r="A32" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -15668,7 +15710,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G32" s="54" t="inlineStr">
+      <c r="G32" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15683,7 +15725,7 @@
       <c r="K32" s="40" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="55" t="inlineStr">
+      <c r="A33" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -15712,7 +15754,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G33" s="54" t="inlineStr">
+      <c r="G33" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15727,7 +15769,7 @@
       <c r="K33" s="40" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="55" t="inlineStr">
+      <c r="A34" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -15753,25 +15795,37 @@
       </c>
       <c r="F34" s="40" t="inlineStr">
         <is>
-          <t>04/02/2025</t>
-        </is>
-      </c>
-      <c r="G34" s="54" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H34" s="40" t="n"/>
-      <c r="I34" s="40" t="n"/>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="G34" s="51" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H34" s="40" t="inlineStr">
+        <is>
+          <t>excluir o ID62 feito pela Rayra</t>
+        </is>
+      </c>
+      <c r="I34" s="40" t="inlineStr">
+        <is>
+          <t>ID62</t>
+        </is>
+      </c>
       <c r="J34" s="40" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K34" s="40" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K34" s="40" t="inlineStr">
+        <is>
+          <t>Deletado 62</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="56" t="inlineStr">
+      <c r="A35" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -15800,7 +15854,7 @@
           <t>25/03/2025</t>
         </is>
       </c>
-      <c r="G35" s="54" t="inlineStr">
+      <c r="G35" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15823,7 +15877,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="58" t="inlineStr">
+      <c r="A36" s="46" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -15852,7 +15906,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G36" s="54" t="inlineStr">
+      <c r="G36" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15867,7 +15921,7 @@
       <c r="K36" s="40" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="58" t="inlineStr">
+      <c r="A37" s="46" t="inlineStr">
         <is>
           <t>Guarapuava</t>
         </is>
@@ -15896,7 +15950,7 @@
           <t>05/06/2025</t>
         </is>
       </c>
-      <c r="G37" s="54" t="inlineStr">
+      <c r="G37" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15919,7 +15973,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="57" t="inlineStr">
+      <c r="A38" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -15948,7 +16002,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G38" s="54" t="inlineStr">
+      <c r="G38" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15963,7 +16017,7 @@
       <c r="K38" s="40" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="60" t="inlineStr">
+      <c r="A39" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -15992,7 +16046,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G39" s="54" t="inlineStr">
+      <c r="G39" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16007,7 +16061,7 @@
       <c r="K39" s="40" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="52" t="inlineStr">
+      <c r="A40" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -16036,7 +16090,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G40" s="54" t="inlineStr">
+      <c r="G40" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16051,7 +16105,7 @@
       <c r="K40" s="40" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="55" t="inlineStr">
+      <c r="A41" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -16080,7 +16134,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G41" s="54" t="inlineStr">
+      <c r="G41" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16095,7 +16149,7 @@
       <c r="K41" s="40" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="60" t="inlineStr">
+      <c r="A42" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -16124,7 +16178,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G42" s="54" t="inlineStr">
+      <c r="G42" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16139,7 +16193,7 @@
       <c r="K42" s="40" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="56" t="inlineStr">
+      <c r="A43" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -16168,7 +16222,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G43" s="54" t="inlineStr">
+      <c r="G43" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16183,7 +16237,7 @@
       <c r="K43" s="40" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="60" t="inlineStr">
+      <c r="A44" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -16212,7 +16266,7 @@
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="G44" s="54" t="inlineStr">
+      <c r="G44" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16227,7 +16281,7 @@
       <c r="K44" s="40" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="57" t="inlineStr">
+      <c r="A45" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -16256,7 +16310,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G45" s="54" t="inlineStr">
+      <c r="G45" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16271,7 +16325,7 @@
       <c r="K45" s="40" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="59" t="inlineStr">
+      <c r="A46" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -16300,7 +16354,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G46" s="54" t="inlineStr">
+      <c r="G46" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16315,7 +16369,7 @@
       <c r="K46" s="40" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="59" t="inlineStr">
+      <c r="A47" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -16344,7 +16398,7 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G47" s="54" t="inlineStr">
+      <c r="G47" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16363,7 +16417,7 @@
       <c r="K47" s="40" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="59" t="inlineStr">
+      <c r="A48" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -16382,7 +16436,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="61" t="inlineStr">
+      <c r="E48" s="53" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -16392,7 +16446,7 @@
           <t>05/02/2025, 07/03/2025</t>
         </is>
       </c>
-      <c r="G48" s="53" t="inlineStr">
+      <c r="G48" s="50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16407,7 +16461,7 @@
       <c r="K48" s="40" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="56" t="inlineStr">
+      <c r="A49" s="44" t="inlineStr">
         <is>
           <t>Francisco Beltrão</t>
         </is>
@@ -16436,7 +16490,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G49" s="54" t="inlineStr">
+      <c r="G49" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16451,7 +16505,7 @@
       <c r="K49" s="40" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="60" t="inlineStr">
+      <c r="A50" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -16480,7 +16534,7 @@
           <t>05/02/2025</t>
         </is>
       </c>
-      <c r="G50" s="54" t="inlineStr">
+      <c r="G50" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16495,7 +16549,7 @@
       <c r="K50" s="40" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="57" t="inlineStr">
+      <c r="A51" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -16524,7 +16578,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G51" s="54" t="inlineStr">
+      <c r="G51" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16539,7 +16593,7 @@
       <c r="K51" s="40" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="52" t="inlineStr">
+      <c r="A52" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -16568,7 +16622,7 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="54" t="inlineStr">
+      <c r="G52" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16583,7 +16637,7 @@
       <c r="K52" s="40" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="57" t="inlineStr">
+      <c r="A53" s="45" t="inlineStr">
         <is>
           <t>Londrina</t>
         </is>
@@ -16612,7 +16666,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G53" s="54" t="inlineStr">
+      <c r="G53" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16627,7 +16681,7 @@
       <c r="K53" s="40" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="60" t="inlineStr">
+      <c r="A54" s="48" t="inlineStr">
         <is>
           <t>Laranjeiras do Sul</t>
         </is>
@@ -16646,13 +16700,17 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="51" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F54" s="40" t="n"/>
-      <c r="G54" s="53" t="inlineStr">
+      <c r="E54" s="41" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F54" s="40" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="G54" s="50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16667,7 +16725,7 @@
       <c r="K54" s="40" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="52" t="inlineStr">
+      <c r="A55" s="39" t="inlineStr">
         <is>
           <t>Paranavaí</t>
         </is>
@@ -16696,7 +16754,7 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G55" s="54" t="inlineStr">
+      <c r="G55" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16719,7 +16777,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="55" t="inlineStr">
+      <c r="A56" s="43" t="inlineStr">
         <is>
           <t>Maringá</t>
         </is>
@@ -16748,7 +16806,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G56" s="54" t="inlineStr">
+      <c r="G56" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16763,7 +16821,7 @@
       <c r="K56" s="40" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="59" t="inlineStr">
+      <c r="A57" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -16782,7 +16840,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="61" t="inlineStr">
+      <c r="E57" s="53" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -16792,7 +16850,7 @@
           <t>21/03/2025, 24/07/2025</t>
         </is>
       </c>
-      <c r="G57" s="53" t="inlineStr">
+      <c r="G57" s="50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16819,7 +16877,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="59" t="inlineStr">
+      <c r="A58" s="47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -16848,7 +16906,7 @@
           <t>10/02/2025</t>
         </is>
       </c>
-      <c r="G58" s="54" t="inlineStr">
+      <c r="G58" s="51" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>

--- a/outputs/expansao_atualizado.xlsx
+++ b/outputs/expansao_atualizado.xlsx
@@ -354,8 +354,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
+        <fgColor rgb="0031869b"/>
+        <bgColor rgb="0031869b"/>
       </patternFill>
     </fill>
     <fill>
@@ -700,7 +700,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <font>
         <color theme="0"/>
@@ -814,6 +814,19 @@
         <patternFill patternType="solid">
           <fgColor rgb="00808080"/>
           <bgColor rgb="00808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="00FFFFFF"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="0031869b"/>
+          <bgColor rgb="0031869b"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11442,7 +11455,7 @@
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="9" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13880,9 +13893,9 @@
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="50" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G52" s="51" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H52" s="40" t="inlineStr">
@@ -14224,7 +14237,7 @@
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="9" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16954,7 +16967,7 @@
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="9" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
